--- a/experiment_results/SBFL_ONLY/Summary/All/multiple_bugs_3bug.xlsx
+++ b/experiment_results/SBFL_ONLY/Summary/All/multiple_bugs_3bug.xlsx
@@ -420,7 +420,7 @@
         <v>1</v>
       </c>
       <c r="C2">
-        <v>0.02315963606286187</v>
+        <v>0.0231023102310231</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -428,7 +428,7 @@
         <v>2</v>
       </c>
       <c r="C3">
-        <v>0.09553349875930521</v>
+        <v>0.0952970297029703</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -436,7 +436,7 @@
         <v>3</v>
       </c>
       <c r="C4">
-        <v>0.1633581472291153</v>
+        <v>0.1629537953795383</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -444,7 +444,7 @@
         <v>4</v>
       </c>
       <c r="C5">
-        <v>0.2187758478081055</v>
+        <v>0.218853135313531</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -452,7 +452,7 @@
         <v>5</v>
       </c>
       <c r="C6">
-        <v>0.2770885028949538</v>
+        <v>0.2772277227722764</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -463,7 +463,7 @@
         <v>1</v>
       </c>
       <c r="C7">
-        <v>0.06947890818858561</v>
+        <v>0.06930693069306931</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -471,7 +471,7 @@
         <v>2</v>
       </c>
       <c r="C8">
-        <v>0.2853598014888337</v>
+        <v>0.2846534653465346</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -479,7 +479,7 @@
         <v>3</v>
       </c>
       <c r="C9">
-        <v>0.456575682382134</v>
+        <v>0.4554455445544555</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -487,7 +487,7 @@
         <v>4</v>
       </c>
       <c r="C10">
-        <v>0.5607940446650124</v>
+        <v>0.5618811881188119</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -495,7 +495,7 @@
         <v>5</v>
       </c>
       <c r="C11">
-        <v>0.6799007444168734</v>
+        <v>0.6806930693069307</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -503,7 +503,7 @@
         <v>5</v>
       </c>
       <c r="C12">
-        <v>6.009925558312655</v>
+        <v>6.004950495049505</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -511,7 +511,7 @@
         <v>6</v>
       </c>
       <c r="C13">
-        <v>215.1786600496278</v>
+        <v>214.6955445544554</v>
       </c>
     </row>
   </sheetData>
@@ -546,7 +546,7 @@
         <v>1</v>
       </c>
       <c r="C2">
-        <v>0.04218362282878414</v>
+        <v>0.0420792079207921</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -554,7 +554,7 @@
         <v>2</v>
       </c>
       <c r="C3">
-        <v>0.1577750206782469</v>
+        <v>0.1580033003300335</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -562,7 +562,7 @@
         <v>3</v>
       </c>
       <c r="C4">
-        <v>0.2758478081058713</v>
+        <v>0.275783828382837</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -570,7 +570,7 @@
         <v>4</v>
       </c>
       <c r="C5">
-        <v>0.3258891645988404</v>
+        <v>0.3265264026402631</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -578,7 +578,7 @@
         <v>5</v>
       </c>
       <c r="C6">
-        <v>0.3618693134822161</v>
+        <v>0.3624174917491749</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -589,7 +589,7 @@
         <v>1</v>
       </c>
       <c r="C7">
-        <v>0.1265508684863524</v>
+        <v>0.1262376237623762</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -597,7 +597,7 @@
         <v>2</v>
       </c>
       <c r="C8">
-        <v>0.4739454094292804</v>
+        <v>0.4752475247524752</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -605,7 +605,7 @@
         <v>3</v>
       </c>
       <c r="C9">
-        <v>0.8238213399503722</v>
+        <v>0.8242574257425742</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -613,7 +613,7 @@
         <v>4</v>
       </c>
       <c r="C10">
-        <v>0.890818858560794</v>
+        <v>0.8910891089108911</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -621,7 +621,7 @@
         <v>5</v>
       </c>
       <c r="C11">
-        <v>0.8982630272952854</v>
+        <v>0.8985148514851485</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -629,7 +629,7 @@
         <v>5</v>
       </c>
       <c r="C12">
-        <v>3.652605459057072</v>
+        <v>3.648514851485149</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -637,7 +637,7 @@
         <v>6</v>
       </c>
       <c r="C13">
-        <v>217.12158808933</v>
+        <v>216.6534653465347</v>
       </c>
     </row>
   </sheetData>
@@ -672,7 +672,7 @@
         <v>1</v>
       </c>
       <c r="C2">
-        <v>0.043631100082713</v>
+        <v>0.04352310231023104</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -680,7 +680,7 @@
         <v>2</v>
       </c>
       <c r="C3">
-        <v>0.1575682382133999</v>
+        <v>0.1577970297029707</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -688,7 +688,7 @@
         <v>3</v>
       </c>
       <c r="C4">
-        <v>0.2795698924731169</v>
+        <v>0.2794966996699658</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -696,7 +696,7 @@
         <v>4</v>
       </c>
       <c r="C5">
-        <v>0.3289909015715451</v>
+        <v>0.3296204620462039</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -704,7 +704,7 @@
         <v>5</v>
       </c>
       <c r="C6">
-        <v>0.3610421836228283</v>
+        <v>0.3615924092409239</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -715,7 +715,7 @@
         <v>1</v>
       </c>
       <c r="C7">
-        <v>0.1315136476426799</v>
+        <v>0.1311881188118812</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -723,7 +723,7 @@
         <v>2</v>
       </c>
       <c r="C8">
-        <v>0.4739454094292804</v>
+        <v>0.4752475247524752</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -731,7 +731,7 @@
         <v>3</v>
       </c>
       <c r="C9">
-        <v>0.8287841191066998</v>
+        <v>0.8292079207920792</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -739,7 +739,7 @@
         <v>4</v>
       </c>
       <c r="C10">
-        <v>0.890818858560794</v>
+        <v>0.8910891089108911</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -747,7 +747,7 @@
         <v>5</v>
       </c>
       <c r="C11">
-        <v>0.8982630272952854</v>
+        <v>0.8985148514851485</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -755,7 +755,7 @@
         <v>5</v>
       </c>
       <c r="C12">
-        <v>3.744416873449131</v>
+        <v>3.74009900990099</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -763,7 +763,7 @@
         <v>6</v>
       </c>
       <c r="C13">
-        <v>210.5086848635236</v>
+        <v>210.0519801980198</v>
       </c>
     </row>
   </sheetData>
@@ -798,7 +798,7 @@
         <v>1</v>
       </c>
       <c r="C2">
-        <v>0.04135649296939622</v>
+        <v>0.04125412541254127</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -806,7 +806,7 @@
         <v>2</v>
       </c>
       <c r="C3">
-        <v>0.1559139784946241</v>
+        <v>0.1561468646864691</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -814,7 +814,7 @@
         <v>3</v>
       </c>
       <c r="C4">
-        <v>0.2762613730355652</v>
+        <v>0.2761963696369625</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -822,7 +822,7 @@
         <v>4</v>
       </c>
       <c r="C5">
-        <v>0.3248552522746055</v>
+        <v>0.3254950495049497</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -830,7 +830,7 @@
         <v>5</v>
       </c>
       <c r="C6">
-        <v>0.3552522746071126</v>
+        <v>0.3558168316831679</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -841,7 +841,7 @@
         <v>1</v>
       </c>
       <c r="C7">
-        <v>0.1240694789081886</v>
+        <v>0.1237623762376238</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -849,7 +849,7 @@
         <v>2</v>
       </c>
       <c r="C8">
-        <v>0.4689826302729528</v>
+        <v>0.4702970297029703</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -857,7 +857,7 @@
         <v>3</v>
       </c>
       <c r="C9">
-        <v>0.8188585607940446</v>
+        <v>0.8193069306930693</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -865,7 +865,7 @@
         <v>4</v>
       </c>
       <c r="C10">
-        <v>0.8784119106699751</v>
+        <v>0.8787128712871287</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -873,7 +873,7 @@
         <v>5</v>
       </c>
       <c r="C11">
-        <v>0.8808933002481389</v>
+        <v>0.8811881188118812</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -881,7 +881,7 @@
         <v>5</v>
       </c>
       <c r="C12">
-        <v>5.689826302729529</v>
+        <v>5.680693069306931</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -889,7 +889,7 @@
         <v>6</v>
       </c>
       <c r="C13">
-        <v>274.2928039702233</v>
+        <v>273.6732673267327</v>
       </c>
     </row>
   </sheetData>
@@ -924,7 +924,7 @@
         <v>1</v>
       </c>
       <c r="C2">
-        <v>0.04135649296939622</v>
+        <v>0.04125412541254127</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -932,7 +932,7 @@
         <v>2</v>
       </c>
       <c r="C3">
-        <v>0.1559139784946241</v>
+        <v>0.1561468646864691</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -940,7 +940,7 @@
         <v>3</v>
       </c>
       <c r="C4">
-        <v>0.2762613730355652</v>
+        <v>0.2761963696369625</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -948,7 +948,7 @@
         <v>4</v>
       </c>
       <c r="C5">
-        <v>0.3248552522746055</v>
+        <v>0.3254950495049497</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -956,7 +956,7 @@
         <v>5</v>
       </c>
       <c r="C6">
-        <v>0.3552522746071126</v>
+        <v>0.3558168316831679</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -967,7 +967,7 @@
         <v>1</v>
       </c>
       <c r="C7">
-        <v>0.1240694789081886</v>
+        <v>0.1237623762376238</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -975,7 +975,7 @@
         <v>2</v>
       </c>
       <c r="C8">
-        <v>0.4689826302729528</v>
+        <v>0.4702970297029703</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -983,7 +983,7 @@
         <v>3</v>
       </c>
       <c r="C9">
-        <v>0.8188585607940446</v>
+        <v>0.8193069306930693</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -991,7 +991,7 @@
         <v>4</v>
       </c>
       <c r="C10">
-        <v>0.8784119106699751</v>
+        <v>0.8787128712871287</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -999,7 +999,7 @@
         <v>5</v>
       </c>
       <c r="C11">
-        <v>0.8808933002481389</v>
+        <v>0.8811881188118812</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -1007,7 +1007,7 @@
         <v>5</v>
       </c>
       <c r="C12">
-        <v>5.689826302729529</v>
+        <v>5.680693069306931</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -1015,7 +1015,7 @@
         <v>6</v>
       </c>
       <c r="C13">
-        <v>274.2928039702233</v>
+        <v>273.6732673267327</v>
       </c>
     </row>
   </sheetData>
@@ -1050,7 +1050,7 @@
         <v>1</v>
       </c>
       <c r="C2">
-        <v>0.04776674937965261</v>
+        <v>0.04764851485148515</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -1058,7 +1058,7 @@
         <v>2</v>
       </c>
       <c r="C3">
-        <v>0.1617038875103395</v>
+        <v>0.1619224422442248</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -1066,7 +1066,7 @@
         <v>3</v>
       </c>
       <c r="C4">
-        <v>0.2715053763440848</v>
+        <v>0.2714521452145203</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -1074,7 +1074,7 @@
         <v>4</v>
       </c>
       <c r="C5">
-        <v>0.3151364764267972</v>
+        <v>0.3151815181518139</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -1082,7 +1082,7 @@
         <v>5</v>
       </c>
       <c r="C6">
-        <v>0.3544251447477248</v>
+        <v>0.3549917491749172</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -1093,7 +1093,7 @@
         <v>1</v>
       </c>
       <c r="C7">
-        <v>0.1439205955334988</v>
+        <v>0.1435643564356436</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -1101,7 +1101,7 @@
         <v>2</v>
       </c>
       <c r="C8">
-        <v>0.4863523573200992</v>
+        <v>0.4876237623762376</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -1109,7 +1109,7 @@
         <v>3</v>
       </c>
       <c r="C9">
-        <v>0.8089330024813896</v>
+        <v>0.8094059405940595</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -1117,7 +1117,7 @@
         <v>4</v>
       </c>
       <c r="C10">
-        <v>0.8858560794044665</v>
+        <v>0.8861386138613861</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -1125,7 +1125,7 @@
         <v>5</v>
       </c>
       <c r="C11">
-        <v>0.8957816377171216</v>
+        <v>0.8960396039603961</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -1133,7 +1133,7 @@
         <v>5</v>
       </c>
       <c r="C12">
-        <v>3.645161290322581</v>
+        <v>3.641089108910891</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -1141,7 +1141,7 @@
         <v>6</v>
       </c>
       <c r="C13">
-        <v>210.7915632754342</v>
+        <v>210.3440594059406</v>
       </c>
     </row>
   </sheetData>
@@ -1176,7 +1176,7 @@
         <v>1</v>
       </c>
       <c r="C2">
-        <v>0.0372208436724566</v>
+        <v>0.03712871287128715</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -1184,7 +1184,7 @@
         <v>2</v>
       </c>
       <c r="C3">
-        <v>0.09904880066170392</v>
+        <v>0.09942244224422445</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -1192,7 +1192,7 @@
         <v>3</v>
       </c>
       <c r="C4">
-        <v>0.1989247311827956</v>
+        <v>0.1990511551155114</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -1200,7 +1200,7 @@
         <v>4</v>
       </c>
       <c r="C5">
-        <v>0.2171215880893297</v>
+        <v>0.2172029702970293</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -1208,7 +1208,7 @@
         <v>5</v>
       </c>
       <c r="C6">
-        <v>0.2369727047146395</v>
+        <v>0.237004950495049</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -1219,7 +1219,7 @@
         <v>1</v>
       </c>
       <c r="C7">
-        <v>0.1116625310173697</v>
+        <v>0.1113861386138614</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -1227,7 +1227,7 @@
         <v>2</v>
       </c>
       <c r="C8">
-        <v>0.2977667493796526</v>
+        <v>0.2995049504950495</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -1235,7 +1235,7 @@
         <v>3</v>
       </c>
       <c r="C9">
-        <v>0.5955334987593052</v>
+        <v>0.5965346534653465</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -1243,7 +1243,7 @@
         <v>4</v>
       </c>
       <c r="C10">
-        <v>0.6501240694789082</v>
+        <v>0.650990099009901</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -1251,7 +1251,7 @@
         <v>5</v>
       </c>
       <c r="C11">
-        <v>0.6873449131513648</v>
+        <v>0.6881188118811881</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -1259,7 +1259,7 @@
         <v>5</v>
       </c>
       <c r="C12">
-        <v>6.982630272952854</v>
+        <v>6.97029702970297</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -1267,7 +1267,7 @@
         <v>6</v>
       </c>
       <c r="C13">
-        <v>235.8759305210918</v>
+        <v>235.5272277227723</v>
       </c>
     </row>
   </sheetData>
@@ -1310,7 +1310,7 @@
         <v>2</v>
       </c>
       <c r="C3">
-        <v>0.00413564929693962</v>
+        <v>0.004125412541254125</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -1318,7 +1318,7 @@
         <v>3</v>
       </c>
       <c r="C4">
-        <v>0.02481389578163772</v>
+        <v>0.02475247524752475</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -1326,7 +1326,7 @@
         <v>4</v>
       </c>
       <c r="C5">
-        <v>0.0603804797353184</v>
+        <v>0.06023102310231018</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -1334,7 +1334,7 @@
         <v>5</v>
       </c>
       <c r="C6">
-        <v>0.07444168734491308</v>
+        <v>0.07425742574257418</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -1353,7 +1353,7 @@
         <v>2</v>
       </c>
       <c r="C8">
-        <v>0.01240694789081886</v>
+        <v>0.01237623762376238</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -1361,7 +1361,7 @@
         <v>3</v>
       </c>
       <c r="C9">
-        <v>0.07444168734491315</v>
+        <v>0.07425742574257425</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -1369,7 +1369,7 @@
         <v>4</v>
       </c>
       <c r="C10">
-        <v>0.1811414392059553</v>
+        <v>0.1806930693069307</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -1377,7 +1377,7 @@
         <v>5</v>
       </c>
       <c r="C11">
-        <v>0.2084367245657568</v>
+        <v>0.2079207920792079</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -1385,7 +1385,7 @@
         <v>5</v>
       </c>
       <c r="C12">
-        <v>20.21091811414392</v>
+        <v>20.1980198019802</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -1393,7 +1393,7 @@
         <v>6</v>
       </c>
       <c r="C13">
-        <v>251.7593052109181</v>
+        <v>251.3787128712871</v>
       </c>
     </row>
   </sheetData>
@@ -1428,7 +1428,7 @@
         <v>1</v>
       </c>
       <c r="C2">
-        <v>0.03784119106699754</v>
+        <v>0.03774752475247527</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -1436,7 +1436,7 @@
         <v>2</v>
       </c>
       <c r="C3">
-        <v>0.1178660049627793</v>
+        <v>0.1175742574257427</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -1444,7 +1444,7 @@
         <v>3</v>
       </c>
       <c r="C4">
-        <v>0.2111248966087675</v>
+        <v>0.2106023102310228</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -1452,7 +1452,7 @@
         <v>4</v>
       </c>
       <c r="C5">
-        <v>0.2363523573200989</v>
+        <v>0.2363861386138608</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -1460,7 +1460,7 @@
         <v>5</v>
       </c>
       <c r="C6">
-        <v>0.2528949545078574</v>
+        <v>0.2528877887788771</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -1471,7 +1471,7 @@
         <v>1</v>
       </c>
       <c r="C7">
-        <v>0.1141439205955335</v>
+        <v>0.1138613861386139</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -1479,7 +1479,7 @@
         <v>2</v>
       </c>
       <c r="C8">
-        <v>0.3523573200992556</v>
+        <v>0.3514851485148515</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -1487,7 +1487,7 @@
         <v>3</v>
       </c>
       <c r="C9">
-        <v>0.6203473945409429</v>
+        <v>0.6188118811881188</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -1495,7 +1495,7 @@
         <v>4</v>
       </c>
       <c r="C10">
-        <v>0.6724565756823822</v>
+        <v>0.6732673267326733</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -1503,7 +1503,7 @@
         <v>5</v>
       </c>
       <c r="C11">
-        <v>0.6873449131513648</v>
+        <v>0.6881188118811881</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -1511,7 +1511,7 @@
         <v>5</v>
       </c>
       <c r="C12">
-        <v>36.27791563275434</v>
+        <v>36.19801980198019</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -1519,7 +1519,7 @@
         <v>6</v>
       </c>
       <c r="C13">
-        <v>400.3796526054591</v>
+        <v>399.5272277227723</v>
       </c>
     </row>
   </sheetData>
@@ -1554,7 +1554,7 @@
         <v>1</v>
       </c>
       <c r="C2">
-        <v>0.04218362282878414</v>
+        <v>0.0420792079207921</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -1562,7 +1562,7 @@
         <v>2</v>
       </c>
       <c r="C3">
-        <v>0.1577750206782469</v>
+        <v>0.1580033003300335</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -1570,7 +1570,7 @@
         <v>3</v>
       </c>
       <c r="C4">
-        <v>0.2758478081058713</v>
+        <v>0.275783828382837</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -1578,7 +1578,7 @@
         <v>4</v>
       </c>
       <c r="C5">
-        <v>0.3258891645988404</v>
+        <v>0.3265264026402631</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -1586,7 +1586,7 @@
         <v>5</v>
       </c>
       <c r="C6">
-        <v>0.3618693134822161</v>
+        <v>0.3624174917491749</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -1597,7 +1597,7 @@
         <v>1</v>
       </c>
       <c r="C7">
-        <v>0.1265508684863524</v>
+        <v>0.1262376237623762</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -1605,7 +1605,7 @@
         <v>2</v>
       </c>
       <c r="C8">
-        <v>0.4739454094292804</v>
+        <v>0.4752475247524752</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -1613,7 +1613,7 @@
         <v>3</v>
       </c>
       <c r="C9">
-        <v>0.8238213399503722</v>
+        <v>0.8242574257425742</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -1621,7 +1621,7 @@
         <v>4</v>
       </c>
       <c r="C10">
-        <v>0.890818858560794</v>
+        <v>0.8910891089108911</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -1629,7 +1629,7 @@
         <v>5</v>
       </c>
       <c r="C11">
-        <v>0.8982630272952854</v>
+        <v>0.8985148514851485</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -1637,7 +1637,7 @@
         <v>5</v>
       </c>
       <c r="C12">
-        <v>3.652605459057072</v>
+        <v>3.648514851485149</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -1645,7 +1645,7 @@
         <v>6</v>
       </c>
       <c r="C13">
-        <v>217.12158808933</v>
+        <v>216.6534653465347</v>
       </c>
     </row>
   </sheetData>
@@ -1680,7 +1680,7 @@
         <v>1</v>
       </c>
       <c r="C2">
-        <v>0.04218362282878414</v>
+        <v>0.0420792079207921</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -1688,7 +1688,7 @@
         <v>2</v>
       </c>
       <c r="C3">
-        <v>0.1577750206782469</v>
+        <v>0.1580033003300335</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -1696,7 +1696,7 @@
         <v>3</v>
       </c>
       <c r="C4">
-        <v>0.2758478081058713</v>
+        <v>0.275783828382837</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -1704,7 +1704,7 @@
         <v>4</v>
       </c>
       <c r="C5">
-        <v>0.3258891645988404</v>
+        <v>0.3265264026402631</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -1712,7 +1712,7 @@
         <v>5</v>
       </c>
       <c r="C6">
-        <v>0.3618693134822161</v>
+        <v>0.3624174917491749</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -1723,7 +1723,7 @@
         <v>1</v>
       </c>
       <c r="C7">
-        <v>0.1265508684863524</v>
+        <v>0.1262376237623762</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -1731,7 +1731,7 @@
         <v>2</v>
       </c>
       <c r="C8">
-        <v>0.4739454094292804</v>
+        <v>0.4752475247524752</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -1739,7 +1739,7 @@
         <v>3</v>
       </c>
       <c r="C9">
-        <v>0.8238213399503722</v>
+        <v>0.8242574257425742</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -1747,7 +1747,7 @@
         <v>4</v>
       </c>
       <c r="C10">
-        <v>0.890818858560794</v>
+        <v>0.8910891089108911</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -1755,7 +1755,7 @@
         <v>5</v>
       </c>
       <c r="C11">
-        <v>0.8982630272952854</v>
+        <v>0.8985148514851485</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -1763,7 +1763,7 @@
         <v>5</v>
       </c>
       <c r="C12">
-        <v>3.652605459057072</v>
+        <v>3.648514851485149</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -1771,7 +1771,7 @@
         <v>6</v>
       </c>
       <c r="C13">
-        <v>217.12158808933</v>
+        <v>216.6534653465347</v>
       </c>
     </row>
   </sheetData>
@@ -1806,7 +1806,7 @@
         <v>1</v>
       </c>
       <c r="C2">
-        <v>0.04776674937965261</v>
+        <v>0.04764851485148515</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -1814,7 +1814,7 @@
         <v>2</v>
       </c>
       <c r="C3">
-        <v>0.1608767576509516</v>
+        <v>0.161097359735974</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -1822,7 +1822,7 @@
         <v>3</v>
       </c>
       <c r="C4">
-        <v>0.2772952853598002</v>
+        <v>0.277227722772276</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -1830,7 +1830,7 @@
         <v>4</v>
       </c>
       <c r="C5">
-        <v>0.3093465674110819</v>
+        <v>0.309405940594058</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -1838,7 +1838,7 @@
         <v>5</v>
       </c>
       <c r="C6">
-        <v>0.3527708850289489</v>
+        <v>0.3533415841584157</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -1849,7 +1849,7 @@
         <v>1</v>
       </c>
       <c r="C7">
-        <v>0.1439205955334988</v>
+        <v>0.1435643564356436</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -1857,7 +1857,7 @@
         <v>2</v>
       </c>
       <c r="C8">
-        <v>0.4838709677419355</v>
+        <v>0.4851485148514851</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -1865,7 +1865,7 @@
         <v>3</v>
       </c>
       <c r="C9">
-        <v>0.826302729528536</v>
+        <v>0.8267326732673267</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -1873,7 +1873,7 @@
         <v>4</v>
       </c>
       <c r="C10">
-        <v>0.8858560794044665</v>
+        <v>0.8861386138613861</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -1881,7 +1881,7 @@
         <v>5</v>
       </c>
       <c r="C11">
-        <v>0.8957816377171216</v>
+        <v>0.8960396039603961</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -1889,7 +1889,7 @@
         <v>5</v>
       </c>
       <c r="C12">
-        <v>3.58560794044665</v>
+        <v>3.581683168316832</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -1897,7 +1897,7 @@
         <v>6</v>
       </c>
       <c r="C13">
-        <v>218.24317617866</v>
+        <v>217.7945544554455</v>
       </c>
     </row>
   </sheetData>
@@ -1932,7 +1932,7 @@
         <v>1</v>
       </c>
       <c r="C2">
-        <v>0.03784119106699754</v>
+        <v>0.03774752475247527</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -1940,7 +1940,7 @@
         <v>2</v>
       </c>
       <c r="C3">
-        <v>0.1178660049627793</v>
+        <v>0.1175742574257427</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -1948,7 +1948,7 @@
         <v>3</v>
       </c>
       <c r="C4">
-        <v>0.2111248966087675</v>
+        <v>0.2106023102310228</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -1956,7 +1956,7 @@
         <v>4</v>
       </c>
       <c r="C5">
-        <v>0.2363523573200989</v>
+        <v>0.2363861386138608</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -1964,7 +1964,7 @@
         <v>5</v>
       </c>
       <c r="C6">
-        <v>0.2528949545078574</v>
+        <v>0.2528877887788771</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -1975,7 +1975,7 @@
         <v>1</v>
       </c>
       <c r="C7">
-        <v>0.1141439205955335</v>
+        <v>0.1138613861386139</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -1983,7 +1983,7 @@
         <v>2</v>
       </c>
       <c r="C8">
-        <v>0.3523573200992556</v>
+        <v>0.3514851485148515</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -1991,7 +1991,7 @@
         <v>3</v>
       </c>
       <c r="C9">
-        <v>0.6203473945409429</v>
+        <v>0.6188118811881188</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -1999,7 +1999,7 @@
         <v>4</v>
       </c>
       <c r="C10">
-        <v>0.6724565756823822</v>
+        <v>0.6732673267326733</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -2007,7 +2007,7 @@
         <v>5</v>
       </c>
       <c r="C11">
-        <v>0.6873449131513648</v>
+        <v>0.6881188118811881</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -2015,7 +2015,7 @@
         <v>5</v>
       </c>
       <c r="C12">
-        <v>36.27791563275434</v>
+        <v>36.19801980198019</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -2023,7 +2023,7 @@
         <v>6</v>
       </c>
       <c r="C13">
-        <v>400.3796526054591</v>
+        <v>399.5272277227723</v>
       </c>
     </row>
   </sheetData>
@@ -2058,7 +2058,7 @@
         <v>1</v>
       </c>
       <c r="C2">
-        <v>0.03784119106699754</v>
+        <v>0.03774752475247527</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -2066,7 +2066,7 @@
         <v>2</v>
       </c>
       <c r="C3">
-        <v>0.1178660049627793</v>
+        <v>0.1175742574257427</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -2074,7 +2074,7 @@
         <v>3</v>
       </c>
       <c r="C4">
-        <v>0.2111248966087675</v>
+        <v>0.2106023102310228</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -2082,7 +2082,7 @@
         <v>4</v>
       </c>
       <c r="C5">
-        <v>0.2363523573200989</v>
+        <v>0.2363861386138608</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -2090,7 +2090,7 @@
         <v>5</v>
       </c>
       <c r="C6">
-        <v>0.2528949545078574</v>
+        <v>0.2528877887788771</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -2101,7 +2101,7 @@
         <v>1</v>
       </c>
       <c r="C7">
-        <v>0.1141439205955335</v>
+        <v>0.1138613861386139</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -2109,7 +2109,7 @@
         <v>2</v>
       </c>
       <c r="C8">
-        <v>0.3523573200992556</v>
+        <v>0.3514851485148515</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -2117,7 +2117,7 @@
         <v>3</v>
       </c>
       <c r="C9">
-        <v>0.6203473945409429</v>
+        <v>0.6188118811881188</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -2125,7 +2125,7 @@
         <v>4</v>
       </c>
       <c r="C10">
-        <v>0.6724565756823822</v>
+        <v>0.6732673267326733</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -2133,7 +2133,7 @@
         <v>5</v>
       </c>
       <c r="C11">
-        <v>0.6873449131513648</v>
+        <v>0.6881188118811881</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -2141,7 +2141,7 @@
         <v>5</v>
       </c>
       <c r="C12">
-        <v>36.27791563275434</v>
+        <v>36.19801980198019</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -2149,7 +2149,7 @@
         <v>6</v>
       </c>
       <c r="C13">
-        <v>400.3796526054591</v>
+        <v>399.5272277227723</v>
       </c>
     </row>
   </sheetData>
@@ -2184,7 +2184,7 @@
         <v>1</v>
       </c>
       <c r="C2">
-        <v>0.03784119106699754</v>
+        <v>0.03774752475247527</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -2192,7 +2192,7 @@
         <v>2</v>
       </c>
       <c r="C3">
-        <v>0.1178660049627793</v>
+        <v>0.1175742574257427</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -2200,7 +2200,7 @@
         <v>3</v>
       </c>
       <c r="C4">
-        <v>0.2111248966087675</v>
+        <v>0.2106023102310228</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -2208,7 +2208,7 @@
         <v>4</v>
       </c>
       <c r="C5">
-        <v>0.2363523573200989</v>
+        <v>0.2363861386138608</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -2216,7 +2216,7 @@
         <v>5</v>
       </c>
       <c r="C6">
-        <v>0.2528949545078574</v>
+        <v>0.2528877887788771</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -2227,7 +2227,7 @@
         <v>1</v>
       </c>
       <c r="C7">
-        <v>0.1141439205955335</v>
+        <v>0.1138613861386139</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -2235,7 +2235,7 @@
         <v>2</v>
       </c>
       <c r="C8">
-        <v>0.3523573200992556</v>
+        <v>0.3514851485148515</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -2243,7 +2243,7 @@
         <v>3</v>
       </c>
       <c r="C9">
-        <v>0.6203473945409429</v>
+        <v>0.6188118811881188</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -2251,7 +2251,7 @@
         <v>4</v>
       </c>
       <c r="C10">
-        <v>0.6724565756823822</v>
+        <v>0.6732673267326733</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -2259,7 +2259,7 @@
         <v>5</v>
       </c>
       <c r="C11">
-        <v>0.6873449131513648</v>
+        <v>0.6881188118811881</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -2267,7 +2267,7 @@
         <v>5</v>
       </c>
       <c r="C12">
-        <v>36.27791563275434</v>
+        <v>36.19801980198019</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -2275,7 +2275,7 @@
         <v>6</v>
       </c>
       <c r="C13">
-        <v>400.3796526054591</v>
+        <v>399.5272277227723</v>
       </c>
     </row>
   </sheetData>
@@ -2310,7 +2310,7 @@
         <v>1</v>
       </c>
       <c r="C2">
-        <v>0.02894954507857734</v>
+        <v>0.02887788778877888</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -2318,7 +2318,7 @@
         <v>2</v>
       </c>
       <c r="C3">
-        <v>0.07423490488006608</v>
+        <v>0.07466996699669956</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -2326,7 +2326,7 @@
         <v>3</v>
       </c>
       <c r="C4">
-        <v>0.1703887510339126</v>
+        <v>0.1705858085808583</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -2334,7 +2334,7 @@
         <v>4</v>
       </c>
       <c r="C5">
-        <v>0.2206368899917283</v>
+        <v>0.2207095709570951</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -2342,7 +2342,7 @@
         <v>5</v>
       </c>
       <c r="C6">
-        <v>0.2669561621174514</v>
+        <v>0.267533003300329</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -2353,7 +2353,7 @@
         <v>1</v>
       </c>
       <c r="C7">
-        <v>0.08684863523573201</v>
+        <v>0.08663366336633663</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -2361,7 +2361,7 @@
         <v>2</v>
       </c>
       <c r="C8">
-        <v>0.2233250620347395</v>
+        <v>0.2252475247524753</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -2369,7 +2369,7 @@
         <v>3</v>
       </c>
       <c r="C9">
-        <v>0.511166253101737</v>
+        <v>0.5123762376237624</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -2377,7 +2377,7 @@
         <v>4</v>
       </c>
       <c r="C10">
-        <v>0.6401985111662531</v>
+        <v>0.6410891089108911</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -2385,7 +2385,7 @@
         <v>5</v>
       </c>
       <c r="C11">
-        <v>0.7320099255583127</v>
+        <v>0.7326732673267327</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -2393,7 +2393,7 @@
         <v>5</v>
       </c>
       <c r="C12">
-        <v>5.863523573200992</v>
+        <v>5.853960396039604</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -2401,7 +2401,7 @@
         <v>6</v>
       </c>
       <c r="C13">
-        <v>220.6947890818859</v>
+        <v>220.2772277227723</v>
       </c>
     </row>
   </sheetData>
@@ -2436,7 +2436,7 @@
         <v>1</v>
       </c>
       <c r="C2">
-        <v>0.04445822994210092</v>
+        <v>0.04434818481848186</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -2444,7 +2444,7 @@
         <v>2</v>
       </c>
       <c r="C3">
-        <v>0.145161290322581</v>
+        <v>0.1454207920792083</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -2452,7 +2452,7 @@
         <v>3</v>
       </c>
       <c r="C4">
-        <v>0.27047146401985</v>
+        <v>0.2704207920792068</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -2460,7 +2460,7 @@
         <v>4</v>
       </c>
       <c r="C5">
-        <v>0.3130686517783275</v>
+        <v>0.3131188118811866</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -2468,7 +2468,7 @@
         <v>5</v>
       </c>
       <c r="C6">
-        <v>0.3444995864350696</v>
+        <v>0.3450907590759069</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -2479,7 +2479,7 @@
         <v>1</v>
       </c>
       <c r="C7">
-        <v>0.1339950372208437</v>
+        <v>0.1336633663366337</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -2487,7 +2487,7 @@
         <v>2</v>
       </c>
       <c r="C8">
-        <v>0.4367245657568238</v>
+        <v>0.4381188118811881</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -2495,7 +2495,7 @@
         <v>3</v>
       </c>
       <c r="C9">
-        <v>0.8064516129032258</v>
+        <v>0.806930693069307</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -2503,7 +2503,7 @@
         <v>4</v>
       </c>
       <c r="C10">
-        <v>0.8957816377171216</v>
+        <v>0.8960396039603961</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -2511,7 +2511,7 @@
         <v>5</v>
       </c>
       <c r="C11">
-        <v>0.9131513647642679</v>
+        <v>0.9133663366336634</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -2519,7 +2519,7 @@
         <v>5</v>
       </c>
       <c r="C12">
-        <v>3.419354838709677</v>
+        <v>3.415841584158416</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -2527,7 +2527,7 @@
         <v>6</v>
       </c>
       <c r="C13">
-        <v>250.7146401985112</v>
+        <v>250.1806930693069</v>
       </c>
     </row>
   </sheetData>
@@ -2562,7 +2562,7 @@
         <v>1</v>
       </c>
       <c r="C2">
-        <v>0.03784119106699754</v>
+        <v>0.03774752475247527</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -2570,7 +2570,7 @@
         <v>2</v>
       </c>
       <c r="C3">
-        <v>0.1178660049627793</v>
+        <v>0.1175742574257427</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -2578,7 +2578,7 @@
         <v>3</v>
       </c>
       <c r="C4">
-        <v>0.2111248966087675</v>
+        <v>0.2106023102310228</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -2586,7 +2586,7 @@
         <v>4</v>
       </c>
       <c r="C5">
-        <v>0.2363523573200989</v>
+        <v>0.2363861386138608</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -2594,7 +2594,7 @@
         <v>5</v>
       </c>
       <c r="C6">
-        <v>0.2528949545078574</v>
+        <v>0.2528877887788771</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -2605,7 +2605,7 @@
         <v>1</v>
       </c>
       <c r="C7">
-        <v>0.1141439205955335</v>
+        <v>0.1138613861386139</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -2613,7 +2613,7 @@
         <v>2</v>
       </c>
       <c r="C8">
-        <v>0.3523573200992556</v>
+        <v>0.3514851485148515</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -2621,7 +2621,7 @@
         <v>3</v>
       </c>
       <c r="C9">
-        <v>0.6203473945409429</v>
+        <v>0.6188118811881188</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -2629,7 +2629,7 @@
         <v>4</v>
       </c>
       <c r="C10">
-        <v>0.6724565756823822</v>
+        <v>0.6732673267326733</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -2637,7 +2637,7 @@
         <v>5</v>
       </c>
       <c r="C11">
-        <v>0.6873449131513648</v>
+        <v>0.6881188118811881</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -2645,7 +2645,7 @@
         <v>5</v>
       </c>
       <c r="C12">
-        <v>36.27791563275434</v>
+        <v>36.19801980198019</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -2653,7 +2653,7 @@
         <v>6</v>
       </c>
       <c r="C13">
-        <v>400.3796526054591</v>
+        <v>399.5272277227723</v>
       </c>
     </row>
   </sheetData>
@@ -2688,7 +2688,7 @@
         <v>1</v>
       </c>
       <c r="C2">
-        <v>0.04631927212572374</v>
+        <v>0.04620462046204621</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -2696,7 +2696,7 @@
         <v>2</v>
       </c>
       <c r="C3">
-        <v>0.1511579818031435</v>
+        <v>0.1514026402640268</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -2704,7 +2704,7 @@
         <v>3</v>
       </c>
       <c r="C4">
-        <v>0.2624069478908178</v>
+        <v>0.2625825082508241</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -2712,7 +2712,7 @@
         <v>4</v>
       </c>
       <c r="C5">
-        <v>0.3010752688172025</v>
+        <v>0.3011551155115501</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -2720,7 +2720,7 @@
         <v>5</v>
       </c>
       <c r="C6">
-        <v>0.3300248138957802</v>
+        <v>0.3300330033003296</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -2731,7 +2731,7 @@
         <v>1</v>
       </c>
       <c r="C7">
-        <v>0.1389578163771712</v>
+        <v>0.1386138613861386</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -2739,7 +2739,7 @@
         <v>2</v>
       </c>
       <c r="C8">
-        <v>0.4540942928039702</v>
+        <v>0.4554455445544555</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -2747,7 +2747,7 @@
         <v>3</v>
       </c>
       <c r="C9">
-        <v>0.7841191066997518</v>
+        <v>0.7846534653465347</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -2755,7 +2755,7 @@
         <v>4</v>
       </c>
       <c r="C10">
-        <v>0.8511166253101737</v>
+        <v>0.8514851485148515</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -2763,7 +2763,7 @@
         <v>5</v>
       </c>
       <c r="C11">
-        <v>0.8635235732009926</v>
+        <v>0.8638613861386139</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -2771,7 +2771,7 @@
         <v>5</v>
       </c>
       <c r="C12">
-        <v>5.540942928039702</v>
+        <v>5.532178217821782</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -2779,7 +2779,7 @@
         <v>6</v>
       </c>
       <c r="C13">
-        <v>285.0893300248139</v>
+        <v>284.4678217821782</v>
       </c>
     </row>
   </sheetData>
@@ -2814,7 +2814,7 @@
         <v>1</v>
       </c>
       <c r="C2">
-        <v>0.04218362282878414</v>
+        <v>0.0420792079207921</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -2822,7 +2822,7 @@
         <v>2</v>
       </c>
       <c r="C3">
-        <v>0.1577750206782469</v>
+        <v>0.1580033003300335</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -2830,7 +2830,7 @@
         <v>3</v>
       </c>
       <c r="C4">
-        <v>0.2758478081058713</v>
+        <v>0.275783828382837</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -2838,7 +2838,7 @@
         <v>4</v>
       </c>
       <c r="C5">
-        <v>0.3258891645988404</v>
+        <v>0.3265264026402631</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -2846,7 +2846,7 @@
         <v>5</v>
       </c>
       <c r="C6">
-        <v>0.3618693134822161</v>
+        <v>0.3624174917491749</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -2857,7 +2857,7 @@
         <v>1</v>
       </c>
       <c r="C7">
-        <v>0.1265508684863524</v>
+        <v>0.1262376237623762</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -2865,7 +2865,7 @@
         <v>2</v>
       </c>
       <c r="C8">
-        <v>0.4739454094292804</v>
+        <v>0.4752475247524752</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -2873,7 +2873,7 @@
         <v>3</v>
       </c>
       <c r="C9">
-        <v>0.8238213399503722</v>
+        <v>0.8242574257425742</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -2881,7 +2881,7 @@
         <v>4</v>
       </c>
       <c r="C10">
-        <v>0.890818858560794</v>
+        <v>0.8910891089108911</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -2889,7 +2889,7 @@
         <v>5</v>
       </c>
       <c r="C11">
-        <v>0.8982630272952854</v>
+        <v>0.8985148514851485</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -2897,7 +2897,7 @@
         <v>5</v>
       </c>
       <c r="C12">
-        <v>3.652605459057072</v>
+        <v>3.648514851485149</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -2905,7 +2905,7 @@
         <v>6</v>
       </c>
       <c r="C13">
-        <v>217.12158808933</v>
+        <v>216.6534653465347</v>
       </c>
     </row>
   </sheetData>
@@ -2940,7 +2940,7 @@
         <v>1</v>
       </c>
       <c r="C2">
-        <v>0.04218362282878414</v>
+        <v>0.0420792079207921</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -2948,7 +2948,7 @@
         <v>2</v>
       </c>
       <c r="C3">
-        <v>0.1577750206782469</v>
+        <v>0.1580033003300335</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -2956,7 +2956,7 @@
         <v>3</v>
       </c>
       <c r="C4">
-        <v>0.2758478081058713</v>
+        <v>0.275783828382837</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -2964,7 +2964,7 @@
         <v>4</v>
       </c>
       <c r="C5">
-        <v>0.3258891645988404</v>
+        <v>0.3265264026402631</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -2972,7 +2972,7 @@
         <v>5</v>
       </c>
       <c r="C6">
-        <v>0.3618693134822161</v>
+        <v>0.3624174917491749</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -2983,7 +2983,7 @@
         <v>1</v>
       </c>
       <c r="C7">
-        <v>0.1265508684863524</v>
+        <v>0.1262376237623762</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -2991,7 +2991,7 @@
         <v>2</v>
       </c>
       <c r="C8">
-        <v>0.4739454094292804</v>
+        <v>0.4752475247524752</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -2999,7 +2999,7 @@
         <v>3</v>
       </c>
       <c r="C9">
-        <v>0.8238213399503722</v>
+        <v>0.8242574257425742</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -3007,7 +3007,7 @@
         <v>4</v>
       </c>
       <c r="C10">
-        <v>0.890818858560794</v>
+        <v>0.8910891089108911</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -3015,7 +3015,7 @@
         <v>5</v>
       </c>
       <c r="C11">
-        <v>0.8982630272952854</v>
+        <v>0.8985148514851485</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -3023,7 +3023,7 @@
         <v>5</v>
       </c>
       <c r="C12">
-        <v>3.652605459057072</v>
+        <v>3.648514851485149</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -3031,7 +3031,7 @@
         <v>6</v>
       </c>
       <c r="C13">
-        <v>217.12158808933</v>
+        <v>216.6534653465347</v>
       </c>
     </row>
   </sheetData>
@@ -3066,7 +3066,7 @@
         <v>1</v>
       </c>
       <c r="C2">
-        <v>0.04445822994210092</v>
+        <v>0.04434818481848186</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -3074,7 +3074,7 @@
         <v>2</v>
       </c>
       <c r="C3">
-        <v>0.145161290322581</v>
+        <v>0.1454207920792083</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -3082,7 +3082,7 @@
         <v>3</v>
       </c>
       <c r="C4">
-        <v>0.27047146401985</v>
+        <v>0.2704207920792068</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -3090,7 +3090,7 @@
         <v>4</v>
       </c>
       <c r="C5">
-        <v>0.3130686517783275</v>
+        <v>0.3131188118811866</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -3098,7 +3098,7 @@
         <v>5</v>
       </c>
       <c r="C6">
-        <v>0.3444995864350696</v>
+        <v>0.3450907590759069</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -3109,7 +3109,7 @@
         <v>1</v>
       </c>
       <c r="C7">
-        <v>0.1339950372208437</v>
+        <v>0.1336633663366337</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -3117,7 +3117,7 @@
         <v>2</v>
       </c>
       <c r="C8">
-        <v>0.4367245657568238</v>
+        <v>0.4381188118811881</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -3125,7 +3125,7 @@
         <v>3</v>
       </c>
       <c r="C9">
-        <v>0.8064516129032258</v>
+        <v>0.806930693069307</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -3133,7 +3133,7 @@
         <v>4</v>
       </c>
       <c r="C10">
-        <v>0.8957816377171216</v>
+        <v>0.8960396039603961</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -3141,7 +3141,7 @@
         <v>5</v>
       </c>
       <c r="C11">
-        <v>0.9131513647642679</v>
+        <v>0.9133663366336634</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -3149,7 +3149,7 @@
         <v>5</v>
       </c>
       <c r="C12">
-        <v>3.419354838709677</v>
+        <v>3.415841584158416</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -3157,7 +3157,7 @@
         <v>6</v>
       </c>
       <c r="C13">
-        <v>212.1439205955335</v>
+        <v>211.7054455445545</v>
       </c>
     </row>
   </sheetData>
@@ -3192,7 +3192,7 @@
         <v>1</v>
       </c>
       <c r="C2">
-        <v>0.003308519437551696</v>
+        <v>0.0033003300330033</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -3200,7 +3200,7 @@
         <v>2</v>
       </c>
       <c r="C3">
-        <v>0.02729528535980149</v>
+        <v>0.02722772277227723</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -3208,7 +3208,7 @@
         <v>3</v>
       </c>
       <c r="C4">
-        <v>0.05955334987593048</v>
+        <v>0.05940594059405936</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -3216,7 +3216,7 @@
         <v>4</v>
       </c>
       <c r="C5">
-        <v>0.08933002481389572</v>
+        <v>0.08910891089108905</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -3224,7 +3224,7 @@
         <v>5</v>
       </c>
       <c r="C6">
-        <v>0.09925558312655092</v>
+        <v>0.09900990099009903</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -3235,7 +3235,7 @@
         <v>1</v>
       </c>
       <c r="C7">
-        <v>0.009925558312655087</v>
+        <v>0.009900990099009901</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -3243,7 +3243,7 @@
         <v>2</v>
       </c>
       <c r="C8">
-        <v>0.08188585607940446</v>
+        <v>0.08168316831683169</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -3251,7 +3251,7 @@
         <v>3</v>
       </c>
       <c r="C9">
-        <v>0.1786600496277916</v>
+        <v>0.1782178217821782</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -3259,7 +3259,7 @@
         <v>4</v>
       </c>
       <c r="C10">
-        <v>0.2679900744416873</v>
+        <v>0.2673267326732673</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -3267,7 +3267,7 @@
         <v>5</v>
       </c>
       <c r="C11">
-        <v>0.28287841191067</v>
+        <v>0.2821782178217822</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -3275,7 +3275,7 @@
         <v>5</v>
       </c>
       <c r="C12">
-        <v>13.40446650124069</v>
+        <v>13.40346534653465</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -3283,7 +3283,7 @@
         <v>6</v>
       </c>
       <c r="C13">
-        <v>179.4764267990074</v>
+        <v>179.2722772277228</v>
       </c>
     </row>
   </sheetData>
@@ -3318,7 +3318,7 @@
         <v>1</v>
       </c>
       <c r="C2">
-        <v>0.043631100082713</v>
+        <v>0.04352310231023104</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -3326,7 +3326,7 @@
         <v>2</v>
       </c>
       <c r="C3">
-        <v>0.121174524400331</v>
+        <v>0.1214933993399342</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -3334,7 +3334,7 @@
         <v>3</v>
       </c>
       <c r="C4">
-        <v>0.2456575682382126</v>
+        <v>0.2456683168316824</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -3342,7 +3342,7 @@
         <v>4</v>
       </c>
       <c r="C5">
-        <v>0.2791563275434231</v>
+        <v>0.279290429042903</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -3350,7 +3350,7 @@
         <v>5</v>
       </c>
       <c r="C6">
-        <v>0.3122415219189396</v>
+        <v>0.3122937293729358</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -3361,7 +3361,7 @@
         <v>1</v>
       </c>
       <c r="C7">
-        <v>0.1315136476426799</v>
+        <v>0.1311881188118812</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -3369,7 +3369,7 @@
         <v>2</v>
       </c>
       <c r="C8">
-        <v>0.3647642679900744</v>
+        <v>0.3663366336633663</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -3377,7 +3377,7 @@
         <v>3</v>
       </c>
       <c r="C9">
-        <v>0.739454094292804</v>
+        <v>0.7400990099009901</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -3385,7 +3385,7 @@
         <v>4</v>
       </c>
       <c r="C10">
-        <v>0.8213399503722084</v>
+        <v>0.8217821782178217</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -3393,7 +3393,7 @@
         <v>5</v>
       </c>
       <c r="C11">
-        <v>0.8759305210918115</v>
+        <v>0.8762376237623762</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -3401,7 +3401,7 @@
         <v>5</v>
       </c>
       <c r="C12">
-        <v>4.508684863523573</v>
+        <v>4.502475247524752</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -3409,7 +3409,7 @@
         <v>6</v>
       </c>
       <c r="C13">
-        <v>224.1240694789082</v>
+        <v>223.759900990099</v>
       </c>
     </row>
   </sheetData>
@@ -3444,7 +3444,7 @@
         <v>1</v>
       </c>
       <c r="C2">
-        <v>0.02315963606286187</v>
+        <v>0.0231023102310231</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -3452,7 +3452,7 @@
         <v>2</v>
       </c>
       <c r="C3">
-        <v>0.09470636889991728</v>
+        <v>0.09447194719471946</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -3460,7 +3460,7 @@
         <v>3</v>
       </c>
       <c r="C4">
-        <v>0.1625310173697274</v>
+        <v>0.1621287128712875</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -3468,7 +3468,7 @@
         <v>4</v>
       </c>
       <c r="C5">
-        <v>0.2187758478081055</v>
+        <v>0.218853135313531</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -3476,7 +3476,7 @@
         <v>5</v>
       </c>
       <c r="C6">
-        <v>0.2770885028949538</v>
+        <v>0.2772277227722764</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -3487,7 +3487,7 @@
         <v>1</v>
       </c>
       <c r="C7">
-        <v>0.06947890818858561</v>
+        <v>0.06930693069306931</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -3495,7 +3495,7 @@
         <v>2</v>
       </c>
       <c r="C8">
-        <v>0.28287841191067</v>
+        <v>0.2821782178217822</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -3503,7 +3503,7 @@
         <v>3</v>
       </c>
       <c r="C9">
-        <v>0.4540942928039702</v>
+        <v>0.452970297029703</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -3511,7 +3511,7 @@
         <v>4</v>
       </c>
       <c r="C10">
-        <v>0.5607940446650124</v>
+        <v>0.5618811881188119</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -3519,7 +3519,7 @@
         <v>5</v>
       </c>
       <c r="C11">
-        <v>0.6799007444168734</v>
+        <v>0.6806930693069307</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -3527,7 +3527,7 @@
         <v>5</v>
       </c>
       <c r="C12">
-        <v>6.014888337468983</v>
+        <v>6.00990099009901</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -3535,7 +3535,7 @@
         <v>6</v>
       </c>
       <c r="C13">
-        <v>215.1786600496278</v>
+        <v>214.6955445544554</v>
       </c>
     </row>
   </sheetData>
@@ -3570,7 +3570,7 @@
         <v>1</v>
       </c>
       <c r="C2">
-        <v>0.0446650124069479</v>
+        <v>0.04455445544554457</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -3578,7 +3578,7 @@
         <v>2</v>
       </c>
       <c r="C3">
-        <v>0.1552936311000831</v>
+        <v>0.155528052805281</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -3586,7 +3586,7 @@
         <v>3</v>
       </c>
       <c r="C4">
-        <v>0.2690239867659211</v>
+        <v>0.2691831683168305</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -3594,7 +3594,7 @@
         <v>4</v>
       </c>
       <c r="C5">
-        <v>0.3019023986765908</v>
+        <v>0.3025990099009888</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -3602,7 +3602,7 @@
         <v>5</v>
       </c>
       <c r="C6">
-        <v>0.334987593052108</v>
+        <v>0.3356023102310223</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -3613,7 +3613,7 @@
         <v>1</v>
       </c>
       <c r="C7">
-        <v>0.1339950372208437</v>
+        <v>0.1336633663366337</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -3621,7 +3621,7 @@
         <v>2</v>
       </c>
       <c r="C8">
-        <v>0.4665012406947891</v>
+        <v>0.4678217821782178</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -3629,7 +3629,7 @@
         <v>3</v>
       </c>
       <c r="C9">
-        <v>0.8039702233250621</v>
+        <v>0.8044554455445545</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -3637,7 +3637,7 @@
         <v>4</v>
       </c>
       <c r="C10">
-        <v>0.8660049627791563</v>
+        <v>0.8663366336633663</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -3645,7 +3645,7 @@
         <v>5</v>
       </c>
       <c r="C11">
-        <v>0.8808933002481389</v>
+        <v>0.8811881188118812</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -3653,7 +3653,7 @@
         <v>5</v>
       </c>
       <c r="C12">
-        <v>4.069478908188586</v>
+        <v>4.064356435643564</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -3661,7 +3661,7 @@
         <v>6</v>
       </c>
       <c r="C13">
-        <v>226.1736972704715</v>
+        <v>225.7648514851485</v>
       </c>
     </row>
   </sheetData>
@@ -3704,7 +3704,7 @@
         <v>2</v>
       </c>
       <c r="C3">
-        <v>0.00413564929693962</v>
+        <v>0.004125412541254125</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -3712,7 +3712,7 @@
         <v>3</v>
       </c>
       <c r="C4">
-        <v>0.02481389578163772</v>
+        <v>0.02475247524752475</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -3720,7 +3720,7 @@
         <v>4</v>
       </c>
       <c r="C5">
-        <v>0.0603804797353184</v>
+        <v>0.06023102310231018</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -3728,7 +3728,7 @@
         <v>5</v>
       </c>
       <c r="C6">
-        <v>0.07444168734491308</v>
+        <v>0.07425742574257418</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -3747,7 +3747,7 @@
         <v>2</v>
       </c>
       <c r="C8">
-        <v>0.01240694789081886</v>
+        <v>0.01237623762376238</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -3755,7 +3755,7 @@
         <v>3</v>
       </c>
       <c r="C9">
-        <v>0.07444168734491315</v>
+        <v>0.07425742574257425</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -3763,7 +3763,7 @@
         <v>4</v>
       </c>
       <c r="C10">
-        <v>0.1811414392059553</v>
+        <v>0.1806930693069307</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -3771,7 +3771,7 @@
         <v>5</v>
       </c>
       <c r="C11">
-        <v>0.2084367245657568</v>
+        <v>0.2079207920792079</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -3779,7 +3779,7 @@
         <v>5</v>
       </c>
       <c r="C12">
-        <v>20.21091811414392</v>
+        <v>20.1980198019802</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -3787,7 +3787,7 @@
         <v>6</v>
       </c>
       <c r="C13">
-        <v>251.7593052109181</v>
+        <v>251.3787128712871</v>
       </c>
     </row>
   </sheetData>
@@ -3822,7 +3822,7 @@
         <v>1</v>
       </c>
       <c r="C2">
-        <v>0.03784119106699754</v>
+        <v>0.03774752475247527</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -3830,7 +3830,7 @@
         <v>2</v>
       </c>
       <c r="C3">
-        <v>0.1178660049627793</v>
+        <v>0.1175742574257427</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -3838,7 +3838,7 @@
         <v>3</v>
       </c>
       <c r="C4">
-        <v>0.2111248966087675</v>
+        <v>0.2106023102310228</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -3846,7 +3846,7 @@
         <v>4</v>
       </c>
       <c r="C5">
-        <v>0.2363523573200989</v>
+        <v>0.2363861386138608</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -3854,7 +3854,7 @@
         <v>5</v>
       </c>
       <c r="C6">
-        <v>0.2528949545078574</v>
+        <v>0.2528877887788771</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -3865,7 +3865,7 @@
         <v>1</v>
       </c>
       <c r="C7">
-        <v>0.1141439205955335</v>
+        <v>0.1138613861386139</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -3873,7 +3873,7 @@
         <v>2</v>
       </c>
       <c r="C8">
-        <v>0.3523573200992556</v>
+        <v>0.3514851485148515</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -3881,7 +3881,7 @@
         <v>3</v>
       </c>
       <c r="C9">
-        <v>0.6203473945409429</v>
+        <v>0.6188118811881188</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -3889,7 +3889,7 @@
         <v>4</v>
       </c>
       <c r="C10">
-        <v>0.6724565756823822</v>
+        <v>0.6732673267326733</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -3897,7 +3897,7 @@
         <v>5</v>
       </c>
       <c r="C11">
-        <v>0.6873449131513648</v>
+        <v>0.6881188118811881</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -3905,7 +3905,7 @@
         <v>5</v>
       </c>
       <c r="C12">
-        <v>36.27791563275434</v>
+        <v>36.19801980198019</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -3913,7 +3913,7 @@
         <v>6</v>
       </c>
       <c r="C13">
-        <v>400.3796526054591</v>
+        <v>399.5272277227723</v>
       </c>
     </row>
   </sheetData>
@@ -3948,7 +3948,7 @@
         <v>1</v>
       </c>
       <c r="C2">
-        <v>0.03784119106699754</v>
+        <v>0.03774752475247527</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -3956,7 +3956,7 @@
         <v>2</v>
       </c>
       <c r="C3">
-        <v>0.1178660049627793</v>
+        <v>0.1175742574257427</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -3964,7 +3964,7 @@
         <v>3</v>
       </c>
       <c r="C4">
-        <v>0.2111248966087675</v>
+        <v>0.2106023102310228</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -3972,7 +3972,7 @@
         <v>4</v>
       </c>
       <c r="C5">
-        <v>0.2363523573200989</v>
+        <v>0.2363861386138608</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -3980,7 +3980,7 @@
         <v>5</v>
       </c>
       <c r="C6">
-        <v>0.2528949545078574</v>
+        <v>0.2528877887788771</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -3991,7 +3991,7 @@
         <v>1</v>
       </c>
       <c r="C7">
-        <v>0.1141439205955335</v>
+        <v>0.1138613861386139</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -3999,7 +3999,7 @@
         <v>2</v>
       </c>
       <c r="C8">
-        <v>0.3523573200992556</v>
+        <v>0.3514851485148515</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -4007,7 +4007,7 @@
         <v>3</v>
       </c>
       <c r="C9">
-        <v>0.6203473945409429</v>
+        <v>0.6188118811881188</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -4015,7 +4015,7 @@
         <v>4</v>
       </c>
       <c r="C10">
-        <v>0.6724565756823822</v>
+        <v>0.6732673267326733</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -4023,7 +4023,7 @@
         <v>5</v>
       </c>
       <c r="C11">
-        <v>0.6873449131513648</v>
+        <v>0.6881188118811881</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -4031,7 +4031,7 @@
         <v>5</v>
       </c>
       <c r="C12">
-        <v>36.27791563275434</v>
+        <v>36.19801980198019</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -4039,7 +4039,7 @@
         <v>6</v>
       </c>
       <c r="C13">
-        <v>400.3796526054591</v>
+        <v>399.5272277227723</v>
       </c>
     </row>
   </sheetData>
@@ -4074,7 +4074,7 @@
         <v>1</v>
       </c>
       <c r="C2">
-        <v>0.04549214226633582</v>
+        <v>0.04537953795379539</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -4082,7 +4082,7 @@
         <v>2</v>
       </c>
       <c r="C3">
-        <v>0.1420595533498762</v>
+        <v>0.1423267326732676</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -4090,7 +4090,7 @@
         <v>3</v>
       </c>
       <c r="C4">
-        <v>0.2444168734491308</v>
+        <v>0.2444306930693062</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -4098,7 +4098,7 @@
         <v>4</v>
       </c>
       <c r="C5">
-        <v>0.2723325062034728</v>
+        <v>0.2722772277227715</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -4106,7 +4106,7 @@
         <v>5</v>
       </c>
       <c r="C6">
-        <v>0.2921836228287825</v>
+        <v>0.2920792079207913</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -4117,7 +4117,7 @@
         <v>1</v>
       </c>
       <c r="C7">
-        <v>0.1364764267990075</v>
+        <v>0.1361386138613861</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -4125,7 +4125,7 @@
         <v>2</v>
       </c>
       <c r="C8">
-        <v>0.4267990074441687</v>
+        <v>0.4282178217821782</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -4133,7 +4133,7 @@
         <v>3</v>
       </c>
       <c r="C9">
-        <v>0.7245657568238213</v>
+        <v>0.7252475247524752</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -4141,7 +4141,7 @@
         <v>4</v>
       </c>
       <c r="C10">
-        <v>0.7741935483870968</v>
+        <v>0.7747524752475248</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -4149,7 +4149,7 @@
         <v>5</v>
       </c>
       <c r="C11">
-        <v>0.7915632754342432</v>
+        <v>0.7920792079207921</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -4157,7 +4157,7 @@
         <v>5</v>
       </c>
       <c r="C12">
-        <v>8.64516129032258</v>
+        <v>8.628712871287128</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -4165,7 +4165,7 @@
         <v>6</v>
       </c>
       <c r="C13">
-        <v>271.4491315136476</v>
+        <v>270.9108910891089</v>
       </c>
     </row>
   </sheetData>

--- a/experiment_results/SBFL_ONLY/Summary/All/multiple_bugs_3bug.xlsx
+++ b/experiment_results/SBFL_ONLY/Summary/All/multiple_bugs_3bug.xlsx
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="210" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="300" uniqueCount="10">
   <si>
     <t>EVALUATION_METRIC</t>
   </si>
@@ -60,10 +60,19 @@
     <t>Proportion of cases that found bugs</t>
   </si>
   <si>
+    <t>Num of cases that found bugs (Hit@x)</t>
+  </si>
+  <si>
     <t>Best rank</t>
   </si>
   <si>
     <t>Worst rank</t>
+  </si>
+  <si>
+    <t>Best exam</t>
+  </si>
+  <si>
+    <t>Worst exam</t>
   </si>
 </sst>
 </file>
@@ -395,7 +404,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C13"/>
+  <dimension ref="A1:C20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -436,7 +445,7 @@
         <v>3</v>
       </c>
       <c r="C4">
-        <v>0.1629537953795383</v>
+        <v>0.1629537953795382</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -444,7 +453,7 @@
         <v>4</v>
       </c>
       <c r="C5">
-        <v>0.218853135313531</v>
+        <v>0.2190594059405936</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -452,7 +461,7 @@
         <v>5</v>
       </c>
       <c r="C6">
-        <v>0.2772277227722764</v>
+        <v>0.2772277227722766</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -502,16 +511,75 @@
       <c r="A12" t="s">
         <v>5</v>
       </c>
+      <c r="B12">
+        <v>1</v>
+      </c>
       <c r="C12">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3">
+      <c r="B13">
+        <v>2</v>
+      </c>
+      <c r="C13">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3">
+      <c r="B14">
+        <v>3</v>
+      </c>
+      <c r="C14">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
+      <c r="B15">
+        <v>4</v>
+      </c>
+      <c r="C15">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3">
+      <c r="B16">
+        <v>5</v>
+      </c>
+      <c r="C16">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
+      <c r="A17" t="s">
+        <v>6</v>
+      </c>
+      <c r="C17">
         <v>6.004950495049505</v>
       </c>
     </row>
-    <row r="13" spans="1:3">
-      <c r="A13" t="s">
-        <v>6</v>
-      </c>
-      <c r="C13">
+    <row r="18" spans="1:3">
+      <c r="A18" t="s">
+        <v>7</v>
+      </c>
+      <c r="C18">
         <v>214.6955445544554</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3">
+      <c r="A19" t="s">
+        <v>8</v>
+      </c>
+      <c r="C19">
+        <v>2.138637119806549</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3">
+      <c r="A20" t="s">
+        <v>9</v>
+      </c>
+      <c r="C20">
+        <v>29.1528430082264</v>
       </c>
     </row>
   </sheetData>
@@ -521,7 +589,7 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C13"/>
+  <dimension ref="A1:C20"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -554,7 +622,7 @@
         <v>2</v>
       </c>
       <c r="C3">
-        <v>0.1580033003300335</v>
+        <v>0.1582095709570961</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -562,7 +630,7 @@
         <v>3</v>
       </c>
       <c r="C4">
-        <v>0.275783828382837</v>
+        <v>0.2759900990098998</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -570,7 +638,7 @@
         <v>4</v>
       </c>
       <c r="C5">
-        <v>0.3265264026402631</v>
+        <v>0.3267326732673259</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -578,7 +646,7 @@
         <v>5</v>
       </c>
       <c r="C6">
-        <v>0.3624174917491749</v>
+        <v>0.3626237623762378</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -628,16 +696,75 @@
       <c r="A12" t="s">
         <v>5</v>
       </c>
+      <c r="B12">
+        <v>1</v>
+      </c>
       <c r="C12">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3">
+      <c r="B13">
+        <v>2</v>
+      </c>
+      <c r="C13">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3">
+      <c r="B14">
+        <v>3</v>
+      </c>
+      <c r="C14">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
+      <c r="B15">
+        <v>4</v>
+      </c>
+      <c r="C15">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3">
+      <c r="B16">
+        <v>5</v>
+      </c>
+      <c r="C16">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
+      <c r="A17" t="s">
+        <v>6</v>
+      </c>
+      <c r="C17">
         <v>3.648514851485149</v>
       </c>
     </row>
-    <row r="13" spans="1:3">
-      <c r="A13" t="s">
-        <v>6</v>
-      </c>
-      <c r="C13">
+    <row r="18" spans="1:3">
+      <c r="A18" t="s">
+        <v>7</v>
+      </c>
+      <c r="C18">
         <v>216.6534653465347</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3">
+      <c r="A19" t="s">
+        <v>8</v>
+      </c>
+      <c r="C19">
+        <v>1.195035626681302</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3">
+      <c r="A20" t="s">
+        <v>9</v>
+      </c>
+      <c r="C20">
+        <v>29.27919376806821</v>
       </c>
     </row>
   </sheetData>
@@ -647,7 +774,7 @@
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C13"/>
+  <dimension ref="A1:C20"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -680,7 +807,7 @@
         <v>2</v>
       </c>
       <c r="C3">
-        <v>0.1577970297029707</v>
+        <v>0.1580033003300334</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -688,7 +815,7 @@
         <v>3</v>
       </c>
       <c r="C4">
-        <v>0.2794966996699658</v>
+        <v>0.2797029702970285</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -696,7 +823,7 @@
         <v>4</v>
       </c>
       <c r="C5">
-        <v>0.3296204620462039</v>
+        <v>0.3298267326732667</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -704,7 +831,7 @@
         <v>5</v>
       </c>
       <c r="C6">
-        <v>0.3615924092409239</v>
+        <v>0.3617986798679869</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -754,16 +881,75 @@
       <c r="A12" t="s">
         <v>5</v>
       </c>
+      <c r="B12">
+        <v>1</v>
+      </c>
       <c r="C12">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3">
+      <c r="B13">
+        <v>2</v>
+      </c>
+      <c r="C13">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3">
+      <c r="B14">
+        <v>3</v>
+      </c>
+      <c r="C14">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
+      <c r="B15">
+        <v>4</v>
+      </c>
+      <c r="C15">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3">
+      <c r="B16">
+        <v>5</v>
+      </c>
+      <c r="C16">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
+      <c r="A17" t="s">
+        <v>6</v>
+      </c>
+      <c r="C17">
         <v>3.74009900990099</v>
       </c>
     </row>
-    <row r="13" spans="1:3">
-      <c r="A13" t="s">
-        <v>6</v>
-      </c>
-      <c r="C13">
+    <row r="18" spans="1:3">
+      <c r="A18" t="s">
+        <v>7</v>
+      </c>
+      <c r="C18">
         <v>210.0519801980198</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3">
+      <c r="A19" t="s">
+        <v>8</v>
+      </c>
+      <c r="C19">
+        <v>1.177619925753821</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3">
+      <c r="A20" t="s">
+        <v>9</v>
+      </c>
+      <c r="C20">
+        <v>30.96501552118216</v>
       </c>
     </row>
   </sheetData>
@@ -773,7 +959,7 @@
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C13"/>
+  <dimension ref="A1:C20"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -806,7 +992,7 @@
         <v>2</v>
       </c>
       <c r="C3">
-        <v>0.1561468646864691</v>
+        <v>0.1563531353135318</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -814,7 +1000,7 @@
         <v>3</v>
       </c>
       <c r="C4">
-        <v>0.2761963696369625</v>
+        <v>0.2764026402640252</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -822,7 +1008,7 @@
         <v>4</v>
       </c>
       <c r="C5">
-        <v>0.3254950495049497</v>
+        <v>0.3257013201320125</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -830,7 +1016,7 @@
         <v>5</v>
       </c>
       <c r="C6">
-        <v>0.3558168316831679</v>
+        <v>0.3560231023102309</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -880,16 +1066,75 @@
       <c r="A12" t="s">
         <v>5</v>
       </c>
+      <c r="B12">
+        <v>1</v>
+      </c>
       <c r="C12">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3">
+      <c r="B13">
+        <v>2</v>
+      </c>
+      <c r="C13">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3">
+      <c r="B14">
+        <v>3</v>
+      </c>
+      <c r="C14">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
+      <c r="B15">
+        <v>4</v>
+      </c>
+      <c r="C15">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3">
+      <c r="B16">
+        <v>5</v>
+      </c>
+      <c r="C16">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
+      <c r="A17" t="s">
+        <v>6</v>
+      </c>
+      <c r="C17">
         <v>5.680693069306931</v>
       </c>
     </row>
-    <row r="13" spans="1:3">
-      <c r="A13" t="s">
-        <v>6</v>
-      </c>
-      <c r="C13">
+    <row r="18" spans="1:3">
+      <c r="A18" t="s">
+        <v>7</v>
+      </c>
+      <c r="C18">
         <v>273.6732673267327</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3">
+      <c r="A19" t="s">
+        <v>8</v>
+      </c>
+      <c r="C19">
+        <v>1.626691480065774</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3">
+      <c r="A20" t="s">
+        <v>9</v>
+      </c>
+      <c r="C20">
+        <v>38.07804309458373</v>
       </c>
     </row>
   </sheetData>
@@ -899,7 +1144,7 @@
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C13"/>
+  <dimension ref="A1:C20"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -932,7 +1177,7 @@
         <v>2</v>
       </c>
       <c r="C3">
-        <v>0.1561468646864691</v>
+        <v>0.1563531353135318</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -940,7 +1185,7 @@
         <v>3</v>
       </c>
       <c r="C4">
-        <v>0.2761963696369625</v>
+        <v>0.2764026402640252</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -948,7 +1193,7 @@
         <v>4</v>
       </c>
       <c r="C5">
-        <v>0.3254950495049497</v>
+        <v>0.3257013201320125</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -956,7 +1201,7 @@
         <v>5</v>
       </c>
       <c r="C6">
-        <v>0.3558168316831679</v>
+        <v>0.3560231023102309</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -1006,16 +1251,75 @@
       <c r="A12" t="s">
         <v>5</v>
       </c>
+      <c r="B12">
+        <v>1</v>
+      </c>
       <c r="C12">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3">
+      <c r="B13">
+        <v>2</v>
+      </c>
+      <c r="C13">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3">
+      <c r="B14">
+        <v>3</v>
+      </c>
+      <c r="C14">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
+      <c r="B15">
+        <v>4</v>
+      </c>
+      <c r="C15">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3">
+      <c r="B16">
+        <v>5</v>
+      </c>
+      <c r="C16">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
+      <c r="A17" t="s">
+        <v>6</v>
+      </c>
+      <c r="C17">
         <v>5.680693069306931</v>
       </c>
     </row>
-    <row r="13" spans="1:3">
-      <c r="A13" t="s">
-        <v>6</v>
-      </c>
-      <c r="C13">
+    <row r="18" spans="1:3">
+      <c r="A18" t="s">
+        <v>7</v>
+      </c>
+      <c r="C18">
         <v>273.6732673267327</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3">
+      <c r="A19" t="s">
+        <v>8</v>
+      </c>
+      <c r="C19">
+        <v>1.626691480065774</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3">
+      <c r="A20" t="s">
+        <v>9</v>
+      </c>
+      <c r="C20">
+        <v>38.07804309458373</v>
       </c>
     </row>
   </sheetData>
@@ -1025,7 +1329,7 @@
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C13"/>
+  <dimension ref="A1:C20"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1058,7 +1362,7 @@
         <v>2</v>
       </c>
       <c r="C3">
-        <v>0.1619224422442248</v>
+        <v>0.1621287128712875</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -1066,7 +1370,7 @@
         <v>3</v>
       </c>
       <c r="C4">
-        <v>0.2714521452145203</v>
+        <v>0.271658415841583</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -1074,7 +1378,7 @@
         <v>4</v>
       </c>
       <c r="C5">
-        <v>0.3151815181518139</v>
+        <v>0.3151815181518141</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -1082,7 +1386,7 @@
         <v>5</v>
       </c>
       <c r="C6">
-        <v>0.3549917491749172</v>
+        <v>0.3551980198019801</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -1132,16 +1436,75 @@
       <c r="A12" t="s">
         <v>5</v>
       </c>
+      <c r="B12">
+        <v>1</v>
+      </c>
       <c r="C12">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3">
+      <c r="B13">
+        <v>2</v>
+      </c>
+      <c r="C13">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3">
+      <c r="B14">
+        <v>3</v>
+      </c>
+      <c r="C14">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
+      <c r="B15">
+        <v>4</v>
+      </c>
+      <c r="C15">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3">
+      <c r="B16">
+        <v>5</v>
+      </c>
+      <c r="C16">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
+      <c r="A17" t="s">
+        <v>6</v>
+      </c>
+      <c r="C17">
         <v>3.641089108910891</v>
       </c>
     </row>
-    <row r="13" spans="1:3">
-      <c r="A13" t="s">
-        <v>6</v>
-      </c>
-      <c r="C13">
+    <row r="18" spans="1:3">
+      <c r="A18" t="s">
+        <v>7</v>
+      </c>
+      <c r="C18">
         <v>210.3440594059406</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3">
+      <c r="A19" t="s">
+        <v>8</v>
+      </c>
+      <c r="C19">
+        <v>1.17197522412777</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3">
+      <c r="A20" t="s">
+        <v>9</v>
+      </c>
+      <c r="C20">
+        <v>30.8391891668749</v>
       </c>
     </row>
   </sheetData>
@@ -1151,7 +1514,7 @@
 
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C13"/>
+  <dimension ref="A1:C20"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1184,7 +1547,7 @@
         <v>2</v>
       </c>
       <c r="C3">
-        <v>0.09942244224422445</v>
+        <v>0.09962871287128716</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -1192,7 +1555,7 @@
         <v>3</v>
       </c>
       <c r="C4">
-        <v>0.1990511551155114</v>
+        <v>0.1992574257425741</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -1200,7 +1563,7 @@
         <v>4</v>
       </c>
       <c r="C5">
-        <v>0.2172029702970293</v>
+        <v>0.2174092409240921</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -1208,7 +1571,7 @@
         <v>5</v>
       </c>
       <c r="C6">
-        <v>0.237004950495049</v>
+        <v>0.2372112211221115</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -1258,16 +1621,75 @@
       <c r="A12" t="s">
         <v>5</v>
       </c>
+      <c r="B12">
+        <v>1</v>
+      </c>
       <c r="C12">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3">
+      <c r="B13">
+        <v>2</v>
+      </c>
+      <c r="C13">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3">
+      <c r="B14">
+        <v>3</v>
+      </c>
+      <c r="C14">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
+      <c r="B15">
+        <v>4</v>
+      </c>
+      <c r="C15">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3">
+      <c r="B16">
+        <v>5</v>
+      </c>
+      <c r="C16">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
+      <c r="A17" t="s">
+        <v>6</v>
+      </c>
+      <c r="C17">
         <v>6.97029702970297</v>
       </c>
     </row>
-    <row r="13" spans="1:3">
-      <c r="A13" t="s">
-        <v>6</v>
-      </c>
-      <c r="C13">
+    <row r="18" spans="1:3">
+      <c r="A18" t="s">
+        <v>7</v>
+      </c>
+      <c r="C18">
         <v>235.5272277227723</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3">
+      <c r="A19" t="s">
+        <v>8</v>
+      </c>
+      <c r="C19">
+        <v>2.046789328633818</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3">
+      <c r="A20" t="s">
+        <v>9</v>
+      </c>
+      <c r="C20">
+        <v>33.72957620975992</v>
       </c>
     </row>
   </sheetData>
@@ -1277,7 +1699,7 @@
 
 <file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C13"/>
+  <dimension ref="A1:C20"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1384,16 +1806,75 @@
       <c r="A12" t="s">
         <v>5</v>
       </c>
+      <c r="B12">
+        <v>1</v>
+      </c>
       <c r="C12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3">
+      <c r="B13">
+        <v>2</v>
+      </c>
+      <c r="C13">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3">
+      <c r="B14">
+        <v>3</v>
+      </c>
+      <c r="C14">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
+      <c r="B15">
+        <v>4</v>
+      </c>
+      <c r="C15">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3">
+      <c r="B16">
+        <v>5</v>
+      </c>
+      <c r="C16">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
+      <c r="A17" t="s">
+        <v>6</v>
+      </c>
+      <c r="C17">
         <v>20.1980198019802</v>
       </c>
     </row>
-    <row r="13" spans="1:3">
-      <c r="A13" t="s">
-        <v>6</v>
-      </c>
-      <c r="C13">
+    <row r="18" spans="1:3">
+      <c r="A18" t="s">
+        <v>7</v>
+      </c>
+      <c r="C18">
         <v>251.3787128712871</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3">
+      <c r="A19" t="s">
+        <v>8</v>
+      </c>
+      <c r="C19">
+        <v>5.207415098490025</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3">
+      <c r="A20" t="s">
+        <v>9</v>
+      </c>
+      <c r="C20">
+        <v>37.39714551778094</v>
       </c>
     </row>
   </sheetData>
@@ -1403,7 +1884,7 @@
 
 <file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C13"/>
+  <dimension ref="A1:C20"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1444,7 +1925,7 @@
         <v>3</v>
       </c>
       <c r="C4">
-        <v>0.2106023102310228</v>
+        <v>0.210602310231023</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -1452,7 +1933,7 @@
         <v>4</v>
       </c>
       <c r="C5">
-        <v>0.2363861386138608</v>
+        <v>0.2365924092409238</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -1460,7 +1941,7 @@
         <v>5</v>
       </c>
       <c r="C6">
-        <v>0.2528877887788771</v>
+        <v>0.2530940594059402</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -1510,16 +1991,75 @@
       <c r="A12" t="s">
         <v>5</v>
       </c>
+      <c r="B12">
+        <v>1</v>
+      </c>
       <c r="C12">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3">
+      <c r="B13">
+        <v>2</v>
+      </c>
+      <c r="C13">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3">
+      <c r="B14">
+        <v>3</v>
+      </c>
+      <c r="C14">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
+      <c r="B15">
+        <v>4</v>
+      </c>
+      <c r="C15">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3">
+      <c r="B16">
+        <v>5</v>
+      </c>
+      <c r="C16">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
+      <c r="A17" t="s">
+        <v>6</v>
+      </c>
+      <c r="C17">
         <v>36.19801980198019</v>
       </c>
     </row>
-    <row r="13" spans="1:3">
-      <c r="A13" t="s">
-        <v>6</v>
-      </c>
-      <c r="C13">
+    <row r="18" spans="1:3">
+      <c r="A18" t="s">
+        <v>7</v>
+      </c>
+      <c r="C18">
         <v>399.5272277227723</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3">
+      <c r="A19" t="s">
+        <v>8</v>
+      </c>
+      <c r="C19">
+        <v>5.875553454757829</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3">
+      <c r="A20" t="s">
+        <v>9</v>
+      </c>
+      <c r="C20">
+        <v>56.60619337241361</v>
       </c>
     </row>
   </sheetData>
@@ -1529,7 +2069,7 @@
 
 <file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C13"/>
+  <dimension ref="A1:C20"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1562,7 +2102,7 @@
         <v>2</v>
       </c>
       <c r="C3">
-        <v>0.1580033003300335</v>
+        <v>0.1582095709570961</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -1570,7 +2110,7 @@
         <v>3</v>
       </c>
       <c r="C4">
-        <v>0.275783828382837</v>
+        <v>0.2759900990098998</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -1578,7 +2118,7 @@
         <v>4</v>
       </c>
       <c r="C5">
-        <v>0.3265264026402631</v>
+        <v>0.3267326732673259</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -1586,7 +2126,7 @@
         <v>5</v>
       </c>
       <c r="C6">
-        <v>0.3624174917491749</v>
+        <v>0.3626237623762378</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -1636,16 +2176,75 @@
       <c r="A12" t="s">
         <v>5</v>
       </c>
+      <c r="B12">
+        <v>1</v>
+      </c>
       <c r="C12">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3">
+      <c r="B13">
+        <v>2</v>
+      </c>
+      <c r="C13">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3">
+      <c r="B14">
+        <v>3</v>
+      </c>
+      <c r="C14">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
+      <c r="B15">
+        <v>4</v>
+      </c>
+      <c r="C15">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3">
+      <c r="B16">
+        <v>5</v>
+      </c>
+      <c r="C16">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
+      <c r="A17" t="s">
+        <v>6</v>
+      </c>
+      <c r="C17">
         <v>3.648514851485149</v>
       </c>
     </row>
-    <row r="13" spans="1:3">
-      <c r="A13" t="s">
-        <v>6</v>
-      </c>
-      <c r="C13">
+    <row r="18" spans="1:3">
+      <c r="A18" t="s">
+        <v>7</v>
+      </c>
+      <c r="C18">
         <v>216.6534653465347</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3">
+      <c r="A19" t="s">
+        <v>8</v>
+      </c>
+      <c r="C19">
+        <v>1.195035626681302</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3">
+      <c r="A20" t="s">
+        <v>9</v>
+      </c>
+      <c r="C20">
+        <v>29.27919376806821</v>
       </c>
     </row>
   </sheetData>
@@ -1655,7 +2254,7 @@
 
 <file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C13"/>
+  <dimension ref="A1:C20"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1688,7 +2287,7 @@
         <v>2</v>
       </c>
       <c r="C3">
-        <v>0.1580033003300335</v>
+        <v>0.1582095709570961</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -1696,7 +2295,7 @@
         <v>3</v>
       </c>
       <c r="C4">
-        <v>0.275783828382837</v>
+        <v>0.2759900990098998</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -1704,7 +2303,7 @@
         <v>4</v>
       </c>
       <c r="C5">
-        <v>0.3265264026402631</v>
+        <v>0.3267326732673259</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -1712,7 +2311,7 @@
         <v>5</v>
       </c>
       <c r="C6">
-        <v>0.3624174917491749</v>
+        <v>0.3626237623762378</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -1762,16 +2361,75 @@
       <c r="A12" t="s">
         <v>5</v>
       </c>
+      <c r="B12">
+        <v>1</v>
+      </c>
       <c r="C12">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3">
+      <c r="B13">
+        <v>2</v>
+      </c>
+      <c r="C13">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3">
+      <c r="B14">
+        <v>3</v>
+      </c>
+      <c r="C14">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
+      <c r="B15">
+        <v>4</v>
+      </c>
+      <c r="C15">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3">
+      <c r="B16">
+        <v>5</v>
+      </c>
+      <c r="C16">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
+      <c r="A17" t="s">
+        <v>6</v>
+      </c>
+      <c r="C17">
         <v>3.648514851485149</v>
       </c>
     </row>
-    <row r="13" spans="1:3">
-      <c r="A13" t="s">
-        <v>6</v>
-      </c>
-      <c r="C13">
+    <row r="18" spans="1:3">
+      <c r="A18" t="s">
+        <v>7</v>
+      </c>
+      <c r="C18">
         <v>216.6534653465347</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3">
+      <c r="A19" t="s">
+        <v>8</v>
+      </c>
+      <c r="C19">
+        <v>1.195035626681302</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3">
+      <c r="A20" t="s">
+        <v>9</v>
+      </c>
+      <c r="C20">
+        <v>29.27919376806821</v>
       </c>
     </row>
   </sheetData>
@@ -1781,7 +2439,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C13"/>
+  <dimension ref="A1:C20"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1814,7 +2472,7 @@
         <v>2</v>
       </c>
       <c r="C3">
-        <v>0.161097359735974</v>
+        <v>0.1613036303630367</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -1822,7 +2480,7 @@
         <v>3</v>
       </c>
       <c r="C4">
-        <v>0.277227722772276</v>
+        <v>0.2774339933993387</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -1830,7 +2488,7 @@
         <v>4</v>
       </c>
       <c r="C5">
-        <v>0.309405940594058</v>
+        <v>0.3094059405940582</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -1838,7 +2496,7 @@
         <v>5</v>
       </c>
       <c r="C6">
-        <v>0.3533415841584157</v>
+        <v>0.3535478547854785</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -1888,16 +2546,75 @@
       <c r="A12" t="s">
         <v>5</v>
       </c>
+      <c r="B12">
+        <v>1</v>
+      </c>
       <c r="C12">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3">
+      <c r="B13">
+        <v>2</v>
+      </c>
+      <c r="C13">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3">
+      <c r="B14">
+        <v>3</v>
+      </c>
+      <c r="C14">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
+      <c r="B15">
+        <v>4</v>
+      </c>
+      <c r="C15">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3">
+      <c r="B16">
+        <v>5</v>
+      </c>
+      <c r="C16">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
+      <c r="A17" t="s">
+        <v>6</v>
+      </c>
+      <c r="C17">
         <v>3.581683168316832</v>
       </c>
     </row>
-    <row r="13" spans="1:3">
-      <c r="A13" t="s">
-        <v>6</v>
-      </c>
-      <c r="C13">
+    <row r="18" spans="1:3">
+      <c r="A18" t="s">
+        <v>7</v>
+      </c>
+      <c r="C18">
         <v>217.7945544554455</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3">
+      <c r="A19" t="s">
+        <v>8</v>
+      </c>
+      <c r="C19">
+        <v>1.164337676671942</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3">
+      <c r="A20" t="s">
+        <v>9</v>
+      </c>
+      <c r="C20">
+        <v>29.67223055794449</v>
       </c>
     </row>
   </sheetData>
@@ -1907,7 +2624,7 @@
 
 <file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C13"/>
+  <dimension ref="A1:C20"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1948,7 +2665,7 @@
         <v>3</v>
       </c>
       <c r="C4">
-        <v>0.2106023102310228</v>
+        <v>0.210602310231023</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -1956,7 +2673,7 @@
         <v>4</v>
       </c>
       <c r="C5">
-        <v>0.2363861386138608</v>
+        <v>0.2365924092409238</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -1964,7 +2681,7 @@
         <v>5</v>
       </c>
       <c r="C6">
-        <v>0.2528877887788771</v>
+        <v>0.2530940594059402</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -2014,16 +2731,75 @@
       <c r="A12" t="s">
         <v>5</v>
       </c>
+      <c r="B12">
+        <v>1</v>
+      </c>
       <c r="C12">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3">
+      <c r="B13">
+        <v>2</v>
+      </c>
+      <c r="C13">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3">
+      <c r="B14">
+        <v>3</v>
+      </c>
+      <c r="C14">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
+      <c r="B15">
+        <v>4</v>
+      </c>
+      <c r="C15">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3">
+      <c r="B16">
+        <v>5</v>
+      </c>
+      <c r="C16">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
+      <c r="A17" t="s">
+        <v>6</v>
+      </c>
+      <c r="C17">
         <v>36.19801980198019</v>
       </c>
     </row>
-    <row r="13" spans="1:3">
-      <c r="A13" t="s">
-        <v>6</v>
-      </c>
-      <c r="C13">
+    <row r="18" spans="1:3">
+      <c r="A18" t="s">
+        <v>7</v>
+      </c>
+      <c r="C18">
         <v>399.5272277227723</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3">
+      <c r="A19" t="s">
+        <v>8</v>
+      </c>
+      <c r="C19">
+        <v>5.875553454757829</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3">
+      <c r="A20" t="s">
+        <v>9</v>
+      </c>
+      <c r="C20">
+        <v>56.60619337241361</v>
       </c>
     </row>
   </sheetData>
@@ -2033,7 +2809,7 @@
 
 <file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C13"/>
+  <dimension ref="A1:C20"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2074,7 +2850,7 @@
         <v>3</v>
       </c>
       <c r="C4">
-        <v>0.2106023102310228</v>
+        <v>0.210602310231023</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -2082,7 +2858,7 @@
         <v>4</v>
       </c>
       <c r="C5">
-        <v>0.2363861386138608</v>
+        <v>0.2365924092409238</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -2090,7 +2866,7 @@
         <v>5</v>
       </c>
       <c r="C6">
-        <v>0.2528877887788771</v>
+        <v>0.2530940594059402</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -2140,16 +2916,75 @@
       <c r="A12" t="s">
         <v>5</v>
       </c>
+      <c r="B12">
+        <v>1</v>
+      </c>
       <c r="C12">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3">
+      <c r="B13">
+        <v>2</v>
+      </c>
+      <c r="C13">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3">
+      <c r="B14">
+        <v>3</v>
+      </c>
+      <c r="C14">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
+      <c r="B15">
+        <v>4</v>
+      </c>
+      <c r="C15">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3">
+      <c r="B16">
+        <v>5</v>
+      </c>
+      <c r="C16">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
+      <c r="A17" t="s">
+        <v>6</v>
+      </c>
+      <c r="C17">
         <v>36.19801980198019</v>
       </c>
     </row>
-    <row r="13" spans="1:3">
-      <c r="A13" t="s">
-        <v>6</v>
-      </c>
-      <c r="C13">
+    <row r="18" spans="1:3">
+      <c r="A18" t="s">
+        <v>7</v>
+      </c>
+      <c r="C18">
         <v>399.5272277227723</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3">
+      <c r="A19" t="s">
+        <v>8</v>
+      </c>
+      <c r="C19">
+        <v>5.875553454757829</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3">
+      <c r="A20" t="s">
+        <v>9</v>
+      </c>
+      <c r="C20">
+        <v>56.60619337241361</v>
       </c>
     </row>
   </sheetData>
@@ -2159,7 +2994,7 @@
 
 <file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C13"/>
+  <dimension ref="A1:C20"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2200,7 +3035,7 @@
         <v>3</v>
       </c>
       <c r="C4">
-        <v>0.2106023102310228</v>
+        <v>0.210602310231023</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -2208,7 +3043,7 @@
         <v>4</v>
       </c>
       <c r="C5">
-        <v>0.2363861386138608</v>
+        <v>0.2365924092409238</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -2216,7 +3051,7 @@
         <v>5</v>
       </c>
       <c r="C6">
-        <v>0.2528877887788771</v>
+        <v>0.2530940594059402</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -2266,16 +3101,75 @@
       <c r="A12" t="s">
         <v>5</v>
       </c>
+      <c r="B12">
+        <v>1</v>
+      </c>
       <c r="C12">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3">
+      <c r="B13">
+        <v>2</v>
+      </c>
+      <c r="C13">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3">
+      <c r="B14">
+        <v>3</v>
+      </c>
+      <c r="C14">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
+      <c r="B15">
+        <v>4</v>
+      </c>
+      <c r="C15">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3">
+      <c r="B16">
+        <v>5</v>
+      </c>
+      <c r="C16">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
+      <c r="A17" t="s">
+        <v>6</v>
+      </c>
+      <c r="C17">
         <v>36.19801980198019</v>
       </c>
     </row>
-    <row r="13" spans="1:3">
-      <c r="A13" t="s">
-        <v>6</v>
-      </c>
-      <c r="C13">
+    <row r="18" spans="1:3">
+      <c r="A18" t="s">
+        <v>7</v>
+      </c>
+      <c r="C18">
         <v>399.5272277227723</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3">
+      <c r="A19" t="s">
+        <v>8</v>
+      </c>
+      <c r="C19">
+        <v>5.875553454757829</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3">
+      <c r="A20" t="s">
+        <v>9</v>
+      </c>
+      <c r="C20">
+        <v>56.60619337241361</v>
       </c>
     </row>
   </sheetData>
@@ -2285,7 +3179,7 @@
 
 <file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C13"/>
+  <dimension ref="A1:C20"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2318,7 +3212,7 @@
         <v>2</v>
       </c>
       <c r="C3">
-        <v>0.07466996699669956</v>
+        <v>0.07487623762376228</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -2326,7 +3220,7 @@
         <v>3</v>
       </c>
       <c r="C4">
-        <v>0.1705858085808583</v>
+        <v>0.170792079207921</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -2334,7 +3228,7 @@
         <v>4</v>
       </c>
       <c r="C5">
-        <v>0.2207095709570951</v>
+        <v>0.2209158415841579</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -2342,7 +3236,7 @@
         <v>5</v>
       </c>
       <c r="C6">
-        <v>0.267533003300329</v>
+        <v>0.2679455445544546</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -2392,16 +3286,75 @@
       <c r="A12" t="s">
         <v>5</v>
       </c>
+      <c r="B12">
+        <v>1</v>
+      </c>
       <c r="C12">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3">
+      <c r="B13">
+        <v>2</v>
+      </c>
+      <c r="C13">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3">
+      <c r="B14">
+        <v>3</v>
+      </c>
+      <c r="C14">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
+      <c r="B15">
+        <v>4</v>
+      </c>
+      <c r="C15">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3">
+      <c r="B16">
+        <v>5</v>
+      </c>
+      <c r="C16">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
+      <c r="A17" t="s">
+        <v>6</v>
+      </c>
+      <c r="C17">
         <v>5.853960396039604</v>
       </c>
     </row>
-    <row r="13" spans="1:3">
-      <c r="A13" t="s">
-        <v>6</v>
-      </c>
-      <c r="C13">
+    <row r="18" spans="1:3">
+      <c r="A18" t="s">
+        <v>7</v>
+      </c>
+      <c r="C18">
         <v>220.2772277227723</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3">
+      <c r="A19" t="s">
+        <v>8</v>
+      </c>
+      <c r="C19">
+        <v>2.185807381132965</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3">
+      <c r="A20" t="s">
+        <v>9</v>
+      </c>
+      <c r="C20">
+        <v>30.72343124233032</v>
       </c>
     </row>
   </sheetData>
@@ -2411,7 +3364,7 @@
 
 <file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C13"/>
+  <dimension ref="A1:C20"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2444,7 +3397,7 @@
         <v>2</v>
       </c>
       <c r="C3">
-        <v>0.1454207920792083</v>
+        <v>0.145627062706271</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -2452,7 +3405,7 @@
         <v>3</v>
       </c>
       <c r="C4">
-        <v>0.2704207920792068</v>
+        <v>0.2706270627062696</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -2460,7 +3413,7 @@
         <v>4</v>
       </c>
       <c r="C5">
-        <v>0.3131188118811866</v>
+        <v>0.3131188118811867</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -2468,7 +3421,7 @@
         <v>5</v>
       </c>
       <c r="C6">
-        <v>0.3450907590759069</v>
+        <v>0.3452970297029698</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -2518,16 +3471,75 @@
       <c r="A12" t="s">
         <v>5</v>
       </c>
+      <c r="B12">
+        <v>1</v>
+      </c>
       <c r="C12">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3">
+      <c r="B13">
+        <v>2</v>
+      </c>
+      <c r="C13">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3">
+      <c r="B14">
+        <v>3</v>
+      </c>
+      <c r="C14">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
+      <c r="B15">
+        <v>4</v>
+      </c>
+      <c r="C15">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3">
+      <c r="B16">
+        <v>5</v>
+      </c>
+      <c r="C16">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
+      <c r="A17" t="s">
+        <v>6</v>
+      </c>
+      <c r="C17">
         <v>3.415841584158416</v>
       </c>
     </row>
-    <row r="13" spans="1:3">
-      <c r="A13" t="s">
-        <v>6</v>
-      </c>
-      <c r="C13">
+    <row r="18" spans="1:3">
+      <c r="A18" t="s">
+        <v>7</v>
+      </c>
+      <c r="C18">
         <v>250.1806930693069</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3">
+      <c r="A19" t="s">
+        <v>8</v>
+      </c>
+      <c r="C19">
+        <v>1.233934890606333</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3">
+      <c r="A20" t="s">
+        <v>9</v>
+      </c>
+      <c r="C20">
+        <v>34.6886375312307</v>
       </c>
     </row>
   </sheetData>
@@ -2537,7 +3549,7 @@
 
 <file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C13"/>
+  <dimension ref="A1:C20"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2578,7 +3590,7 @@
         <v>3</v>
       </c>
       <c r="C4">
-        <v>0.2106023102310228</v>
+        <v>0.210602310231023</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -2586,7 +3598,7 @@
         <v>4</v>
       </c>
       <c r="C5">
-        <v>0.2363861386138608</v>
+        <v>0.2365924092409238</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -2594,7 +3606,7 @@
         <v>5</v>
       </c>
       <c r="C6">
-        <v>0.2528877887788771</v>
+        <v>0.2530940594059402</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -2644,16 +3656,75 @@
       <c r="A12" t="s">
         <v>5</v>
       </c>
+      <c r="B12">
+        <v>1</v>
+      </c>
       <c r="C12">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3">
+      <c r="B13">
+        <v>2</v>
+      </c>
+      <c r="C13">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3">
+      <c r="B14">
+        <v>3</v>
+      </c>
+      <c r="C14">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
+      <c r="B15">
+        <v>4</v>
+      </c>
+      <c r="C15">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3">
+      <c r="B16">
+        <v>5</v>
+      </c>
+      <c r="C16">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
+      <c r="A17" t="s">
+        <v>6</v>
+      </c>
+      <c r="C17">
         <v>36.19801980198019</v>
       </c>
     </row>
-    <row r="13" spans="1:3">
-      <c r="A13" t="s">
-        <v>6</v>
-      </c>
-      <c r="C13">
+    <row r="18" spans="1:3">
+      <c r="A18" t="s">
+        <v>7</v>
+      </c>
+      <c r="C18">
         <v>399.5272277227723</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3">
+      <c r="A19" t="s">
+        <v>8</v>
+      </c>
+      <c r="C19">
+        <v>5.875553454757829</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3">
+      <c r="A20" t="s">
+        <v>9</v>
+      </c>
+      <c r="C20">
+        <v>56.60619337241361</v>
       </c>
     </row>
   </sheetData>
@@ -2663,7 +3734,7 @@
 
 <file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C13"/>
+  <dimension ref="A1:C20"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2696,7 +3767,7 @@
         <v>2</v>
       </c>
       <c r="C3">
-        <v>0.1514026402640268</v>
+        <v>0.1516089108910895</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -2712,7 +3783,7 @@
         <v>4</v>
       </c>
       <c r="C5">
-        <v>0.3011551155115501</v>
+        <v>0.3011551155115503</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -2720,7 +3791,7 @@
         <v>5</v>
       </c>
       <c r="C6">
-        <v>0.3300330033003296</v>
+        <v>0.3300330033003295</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -2770,16 +3841,75 @@
       <c r="A12" t="s">
         <v>5</v>
       </c>
+      <c r="B12">
+        <v>1</v>
+      </c>
       <c r="C12">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3">
+      <c r="B13">
+        <v>2</v>
+      </c>
+      <c r="C13">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3">
+      <c r="B14">
+        <v>3</v>
+      </c>
+      <c r="C14">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
+      <c r="B15">
+        <v>4</v>
+      </c>
+      <c r="C15">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3">
+      <c r="B16">
+        <v>5</v>
+      </c>
+      <c r="C16">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
+      <c r="A17" t="s">
+        <v>6</v>
+      </c>
+      <c r="C17">
         <v>5.532178217821782</v>
       </c>
     </row>
-    <row r="13" spans="1:3">
-      <c r="A13" t="s">
-        <v>6</v>
-      </c>
-      <c r="C13">
+    <row r="18" spans="1:3">
+      <c r="A18" t="s">
+        <v>7</v>
+      </c>
+      <c r="C18">
         <v>284.4678217821782</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3">
+      <c r="A19" t="s">
+        <v>8</v>
+      </c>
+      <c r="C19">
+        <v>1.642960550534183</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3">
+      <c r="A20" t="s">
+        <v>9</v>
+      </c>
+      <c r="C20">
+        <v>39.48898049079285</v>
       </c>
     </row>
   </sheetData>
@@ -2789,7 +3919,7 @@
 
 <file path=xl/worksheets/sheet27.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C13"/>
+  <dimension ref="A1:C20"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2822,7 +3952,7 @@
         <v>2</v>
       </c>
       <c r="C3">
-        <v>0.1580033003300335</v>
+        <v>0.1582095709570961</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -2830,7 +3960,7 @@
         <v>3</v>
       </c>
       <c r="C4">
-        <v>0.275783828382837</v>
+        <v>0.2759900990098998</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -2838,7 +3968,7 @@
         <v>4</v>
       </c>
       <c r="C5">
-        <v>0.3265264026402631</v>
+        <v>0.3267326732673259</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -2846,7 +3976,7 @@
         <v>5</v>
       </c>
       <c r="C6">
-        <v>0.3624174917491749</v>
+        <v>0.3626237623762378</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -2896,16 +4026,75 @@
       <c r="A12" t="s">
         <v>5</v>
       </c>
+      <c r="B12">
+        <v>1</v>
+      </c>
       <c r="C12">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3">
+      <c r="B13">
+        <v>2</v>
+      </c>
+      <c r="C13">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3">
+      <c r="B14">
+        <v>3</v>
+      </c>
+      <c r="C14">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
+      <c r="B15">
+        <v>4</v>
+      </c>
+      <c r="C15">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3">
+      <c r="B16">
+        <v>5</v>
+      </c>
+      <c r="C16">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
+      <c r="A17" t="s">
+        <v>6</v>
+      </c>
+      <c r="C17">
         <v>3.648514851485149</v>
       </c>
     </row>
-    <row r="13" spans="1:3">
-      <c r="A13" t="s">
-        <v>6</v>
-      </c>
-      <c r="C13">
+    <row r="18" spans="1:3">
+      <c r="A18" t="s">
+        <v>7</v>
+      </c>
+      <c r="C18">
         <v>216.6534653465347</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3">
+      <c r="A19" t="s">
+        <v>8</v>
+      </c>
+      <c r="C19">
+        <v>1.195035626681302</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3">
+      <c r="A20" t="s">
+        <v>9</v>
+      </c>
+      <c r="C20">
+        <v>29.27919376806821</v>
       </c>
     </row>
   </sheetData>
@@ -2915,7 +4104,7 @@
 
 <file path=xl/worksheets/sheet28.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C13"/>
+  <dimension ref="A1:C20"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2948,7 +4137,7 @@
         <v>2</v>
       </c>
       <c r="C3">
-        <v>0.1580033003300335</v>
+        <v>0.1582095709570961</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -2956,7 +4145,7 @@
         <v>3</v>
       </c>
       <c r="C4">
-        <v>0.275783828382837</v>
+        <v>0.2759900990098998</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -2964,7 +4153,7 @@
         <v>4</v>
       </c>
       <c r="C5">
-        <v>0.3265264026402631</v>
+        <v>0.3267326732673259</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -2972,7 +4161,7 @@
         <v>5</v>
       </c>
       <c r="C6">
-        <v>0.3624174917491749</v>
+        <v>0.3626237623762378</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -3022,16 +4211,75 @@
       <c r="A12" t="s">
         <v>5</v>
       </c>
+      <c r="B12">
+        <v>1</v>
+      </c>
       <c r="C12">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3">
+      <c r="B13">
+        <v>2</v>
+      </c>
+      <c r="C13">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3">
+      <c r="B14">
+        <v>3</v>
+      </c>
+      <c r="C14">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
+      <c r="B15">
+        <v>4</v>
+      </c>
+      <c r="C15">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3">
+      <c r="B16">
+        <v>5</v>
+      </c>
+      <c r="C16">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
+      <c r="A17" t="s">
+        <v>6</v>
+      </c>
+      <c r="C17">
         <v>3.648514851485149</v>
       </c>
     </row>
-    <row r="13" spans="1:3">
-      <c r="A13" t="s">
-        <v>6</v>
-      </c>
-      <c r="C13">
+    <row r="18" spans="1:3">
+      <c r="A18" t="s">
+        <v>7</v>
+      </c>
+      <c r="C18">
         <v>216.6534653465347</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3">
+      <c r="A19" t="s">
+        <v>8</v>
+      </c>
+      <c r="C19">
+        <v>1.195035626681302</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3">
+      <c r="A20" t="s">
+        <v>9</v>
+      </c>
+      <c r="C20">
+        <v>29.27919376806821</v>
       </c>
     </row>
   </sheetData>
@@ -3041,7 +4289,7 @@
 
 <file path=xl/worksheets/sheet29.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C13"/>
+  <dimension ref="A1:C20"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -3074,7 +4322,7 @@
         <v>2</v>
       </c>
       <c r="C3">
-        <v>0.1454207920792083</v>
+        <v>0.145627062706271</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -3082,7 +4330,7 @@
         <v>3</v>
       </c>
       <c r="C4">
-        <v>0.2704207920792068</v>
+        <v>0.2706270627062696</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -3090,7 +4338,7 @@
         <v>4</v>
       </c>
       <c r="C5">
-        <v>0.3131188118811866</v>
+        <v>0.3131188118811867</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -3098,7 +4346,7 @@
         <v>5</v>
       </c>
       <c r="C6">
-        <v>0.3450907590759069</v>
+        <v>0.3452970297029698</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -3148,16 +4396,75 @@
       <c r="A12" t="s">
         <v>5</v>
       </c>
+      <c r="B12">
+        <v>1</v>
+      </c>
       <c r="C12">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3">
+      <c r="B13">
+        <v>2</v>
+      </c>
+      <c r="C13">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3">
+      <c r="B14">
+        <v>3</v>
+      </c>
+      <c r="C14">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
+      <c r="B15">
+        <v>4</v>
+      </c>
+      <c r="C15">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3">
+      <c r="B16">
+        <v>5</v>
+      </c>
+      <c r="C16">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
+      <c r="A17" t="s">
+        <v>6</v>
+      </c>
+      <c r="C17">
         <v>3.415841584158416</v>
       </c>
     </row>
-    <row r="13" spans="1:3">
-      <c r="A13" t="s">
-        <v>6</v>
-      </c>
-      <c r="C13">
+    <row r="18" spans="1:3">
+      <c r="A18" t="s">
+        <v>7</v>
+      </c>
+      <c r="C18">
         <v>211.7054455445545</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3">
+      <c r="A19" t="s">
+        <v>8</v>
+      </c>
+      <c r="C19">
+        <v>1.233934890606333</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3">
+      <c r="A20" t="s">
+        <v>9</v>
+      </c>
+      <c r="C20">
+        <v>31.24372381533498</v>
       </c>
     </row>
   </sheetData>
@@ -3167,7 +4474,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C13"/>
+  <dimension ref="A1:C20"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -3224,7 +4531,7 @@
         <v>5</v>
       </c>
       <c r="C6">
-        <v>0.09900990099009903</v>
+        <v>0.09900990099009906</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -3274,16 +4581,75 @@
       <c r="A12" t="s">
         <v>5</v>
       </c>
+      <c r="B12">
+        <v>1</v>
+      </c>
       <c r="C12">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3">
+      <c r="B13">
+        <v>2</v>
+      </c>
+      <c r="C13">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3">
+      <c r="B14">
+        <v>3</v>
+      </c>
+      <c r="C14">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
+      <c r="B15">
+        <v>4</v>
+      </c>
+      <c r="C15">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3">
+      <c r="B16">
+        <v>5</v>
+      </c>
+      <c r="C16">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
+      <c r="A17" t="s">
+        <v>6</v>
+      </c>
+      <c r="C17">
         <v>13.40346534653465</v>
       </c>
     </row>
-    <row r="13" spans="1:3">
-      <c r="A13" t="s">
-        <v>6</v>
-      </c>
-      <c r="C13">
+    <row r="18" spans="1:3">
+      <c r="A18" t="s">
+        <v>7</v>
+      </c>
+      <c r="C18">
         <v>179.2722772277228</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3">
+      <c r="A19" t="s">
+        <v>8</v>
+      </c>
+      <c r="C19">
+        <v>3.627628156028292</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3">
+      <c r="A20" t="s">
+        <v>9</v>
+      </c>
+      <c r="C20">
+        <v>29.55374265302251</v>
       </c>
     </row>
   </sheetData>
@@ -3293,7 +4659,7 @@
 
 <file path=xl/worksheets/sheet30.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C13"/>
+  <dimension ref="A1:C20"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -3326,7 +4692,7 @@
         <v>2</v>
       </c>
       <c r="C3">
-        <v>0.1214933993399342</v>
+        <v>0.1216996699669969</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -3334,7 +4700,7 @@
         <v>3</v>
       </c>
       <c r="C4">
-        <v>0.2456683168316824</v>
+        <v>0.2458745874587451</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -3400,16 +4766,75 @@
       <c r="A12" t="s">
         <v>5</v>
       </c>
+      <c r="B12">
+        <v>1</v>
+      </c>
       <c r="C12">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3">
+      <c r="B13">
+        <v>2</v>
+      </c>
+      <c r="C13">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3">
+      <c r="B14">
+        <v>3</v>
+      </c>
+      <c r="C14">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
+      <c r="B15">
+        <v>4</v>
+      </c>
+      <c r="C15">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3">
+      <c r="B16">
+        <v>5</v>
+      </c>
+      <c r="C16">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
+      <c r="A17" t="s">
+        <v>6</v>
+      </c>
+      <c r="C17">
         <v>4.502475247524752</v>
       </c>
     </row>
-    <row r="13" spans="1:3">
-      <c r="A13" t="s">
-        <v>6</v>
-      </c>
-      <c r="C13">
+    <row r="18" spans="1:3">
+      <c r="A18" t="s">
+        <v>7</v>
+      </c>
+      <c r="C18">
         <v>223.759900990099</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3">
+      <c r="A19" t="s">
+        <v>8</v>
+      </c>
+      <c r="C19">
+        <v>1.553711865771788</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3">
+      <c r="A20" t="s">
+        <v>9</v>
+      </c>
+      <c r="C20">
+        <v>31.6361700185366</v>
       </c>
     </row>
   </sheetData>
@@ -3419,7 +4844,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C13"/>
+  <dimension ref="A1:C20"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -3460,7 +4885,7 @@
         <v>3</v>
       </c>
       <c r="C4">
-        <v>0.1621287128712875</v>
+        <v>0.1621287128712874</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -3468,7 +4893,7 @@
         <v>4</v>
       </c>
       <c r="C5">
-        <v>0.218853135313531</v>
+        <v>0.2190594059405936</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -3476,7 +4901,7 @@
         <v>5</v>
       </c>
       <c r="C6">
-        <v>0.2772277227722764</v>
+        <v>0.2772277227722766</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -3526,16 +4951,75 @@
       <c r="A12" t="s">
         <v>5</v>
       </c>
+      <c r="B12">
+        <v>1</v>
+      </c>
       <c r="C12">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3">
+      <c r="B13">
+        <v>2</v>
+      </c>
+      <c r="C13">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3">
+      <c r="B14">
+        <v>3</v>
+      </c>
+      <c r="C14">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
+      <c r="B15">
+        <v>4</v>
+      </c>
+      <c r="C15">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3">
+      <c r="B16">
+        <v>5</v>
+      </c>
+      <c r="C16">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
+      <c r="A17" t="s">
+        <v>6</v>
+      </c>
+      <c r="C17">
         <v>6.00990099009901</v>
       </c>
     </row>
-    <row r="13" spans="1:3">
-      <c r="A13" t="s">
-        <v>6</v>
-      </c>
-      <c r="C13">
+    <row r="18" spans="1:3">
+      <c r="A18" t="s">
+        <v>7</v>
+      </c>
+      <c r="C18">
         <v>214.6955445544554</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3">
+      <c r="A19" t="s">
+        <v>8</v>
+      </c>
+      <c r="C19">
+        <v>2.139148006808562</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3">
+      <c r="A20" t="s">
+        <v>9</v>
+      </c>
+      <c r="C20">
+        <v>29.1528430082264</v>
       </c>
     </row>
   </sheetData>
@@ -3545,7 +5029,7 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C13"/>
+  <dimension ref="A1:C20"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -3578,7 +5062,7 @@
         <v>2</v>
       </c>
       <c r="C3">
-        <v>0.155528052805281</v>
+        <v>0.1557343234323436</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -3594,7 +5078,7 @@
         <v>4</v>
       </c>
       <c r="C5">
-        <v>0.3025990099009888</v>
+        <v>0.3028052805280517</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -3602,7 +5086,7 @@
         <v>5</v>
       </c>
       <c r="C6">
-        <v>0.3356023102310223</v>
+        <v>0.3358085808580853</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -3652,16 +5136,75 @@
       <c r="A12" t="s">
         <v>5</v>
       </c>
+      <c r="B12">
+        <v>1</v>
+      </c>
       <c r="C12">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3">
+      <c r="B13">
+        <v>2</v>
+      </c>
+      <c r="C13">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3">
+      <c r="B14">
+        <v>3</v>
+      </c>
+      <c r="C14">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
+      <c r="B15">
+        <v>4</v>
+      </c>
+      <c r="C15">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3">
+      <c r="B16">
+        <v>5</v>
+      </c>
+      <c r="C16">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
+      <c r="A17" t="s">
+        <v>6</v>
+      </c>
+      <c r="C17">
         <v>4.064356435643564</v>
       </c>
     </row>
-    <row r="13" spans="1:3">
-      <c r="A13" t="s">
-        <v>6</v>
-      </c>
-      <c r="C13">
+    <row r="18" spans="1:3">
+      <c r="A18" t="s">
+        <v>7</v>
+      </c>
+      <c r="C18">
         <v>225.7648514851485</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3">
+      <c r="A19" t="s">
+        <v>8</v>
+      </c>
+      <c r="C19">
+        <v>1.273999951244744</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3">
+      <c r="A20" t="s">
+        <v>9</v>
+      </c>
+      <c r="C20">
+        <v>31.56951467826676</v>
       </c>
     </row>
   </sheetData>
@@ -3671,7 +5214,7 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C13"/>
+  <dimension ref="A1:C20"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -3778,16 +5321,75 @@
       <c r="A12" t="s">
         <v>5</v>
       </c>
+      <c r="B12">
+        <v>1</v>
+      </c>
       <c r="C12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3">
+      <c r="B13">
+        <v>2</v>
+      </c>
+      <c r="C13">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3">
+      <c r="B14">
+        <v>3</v>
+      </c>
+      <c r="C14">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
+      <c r="B15">
+        <v>4</v>
+      </c>
+      <c r="C15">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3">
+      <c r="B16">
+        <v>5</v>
+      </c>
+      <c r="C16">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
+      <c r="A17" t="s">
+        <v>6</v>
+      </c>
+      <c r="C17">
         <v>20.1980198019802</v>
       </c>
     </row>
-    <row r="13" spans="1:3">
-      <c r="A13" t="s">
-        <v>6</v>
-      </c>
-      <c r="C13">
+    <row r="18" spans="1:3">
+      <c r="A18" t="s">
+        <v>7</v>
+      </c>
+      <c r="C18">
         <v>251.3787128712871</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3">
+      <c r="A19" t="s">
+        <v>8</v>
+      </c>
+      <c r="C19">
+        <v>5.207415098490025</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3">
+      <c r="A20" t="s">
+        <v>9</v>
+      </c>
+      <c r="C20">
+        <v>37.39714551778094</v>
       </c>
     </row>
   </sheetData>
@@ -3797,7 +5399,7 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C13"/>
+  <dimension ref="A1:C20"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -3838,7 +5440,7 @@
         <v>3</v>
       </c>
       <c r="C4">
-        <v>0.2106023102310228</v>
+        <v>0.210602310231023</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -3846,7 +5448,7 @@
         <v>4</v>
       </c>
       <c r="C5">
-        <v>0.2363861386138608</v>
+        <v>0.2365924092409238</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -3854,7 +5456,7 @@
         <v>5</v>
       </c>
       <c r="C6">
-        <v>0.2528877887788771</v>
+        <v>0.2530940594059402</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -3904,16 +5506,75 @@
       <c r="A12" t="s">
         <v>5</v>
       </c>
+      <c r="B12">
+        <v>1</v>
+      </c>
       <c r="C12">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3">
+      <c r="B13">
+        <v>2</v>
+      </c>
+      <c r="C13">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3">
+      <c r="B14">
+        <v>3</v>
+      </c>
+      <c r="C14">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
+      <c r="B15">
+        <v>4</v>
+      </c>
+      <c r="C15">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3">
+      <c r="B16">
+        <v>5</v>
+      </c>
+      <c r="C16">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
+      <c r="A17" t="s">
+        <v>6</v>
+      </c>
+      <c r="C17">
         <v>36.19801980198019</v>
       </c>
     </row>
-    <row r="13" spans="1:3">
-      <c r="A13" t="s">
-        <v>6</v>
-      </c>
-      <c r="C13">
+    <row r="18" spans="1:3">
+      <c r="A18" t="s">
+        <v>7</v>
+      </c>
+      <c r="C18">
         <v>399.5272277227723</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3">
+      <c r="A19" t="s">
+        <v>8</v>
+      </c>
+      <c r="C19">
+        <v>5.875553454757829</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3">
+      <c r="A20" t="s">
+        <v>9</v>
+      </c>
+      <c r="C20">
+        <v>56.60619337241361</v>
       </c>
     </row>
   </sheetData>
@@ -3923,7 +5584,7 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C13"/>
+  <dimension ref="A1:C20"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -3964,7 +5625,7 @@
         <v>3</v>
       </c>
       <c r="C4">
-        <v>0.2106023102310228</v>
+        <v>0.210602310231023</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -3972,7 +5633,7 @@
         <v>4</v>
       </c>
       <c r="C5">
-        <v>0.2363861386138608</v>
+        <v>0.2365924092409238</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -3980,7 +5641,7 @@
         <v>5</v>
       </c>
       <c r="C6">
-        <v>0.2528877887788771</v>
+        <v>0.2530940594059402</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -4030,16 +5691,75 @@
       <c r="A12" t="s">
         <v>5</v>
       </c>
+      <c r="B12">
+        <v>1</v>
+      </c>
       <c r="C12">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3">
+      <c r="B13">
+        <v>2</v>
+      </c>
+      <c r="C13">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3">
+      <c r="B14">
+        <v>3</v>
+      </c>
+      <c r="C14">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
+      <c r="B15">
+        <v>4</v>
+      </c>
+      <c r="C15">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3">
+      <c r="B16">
+        <v>5</v>
+      </c>
+      <c r="C16">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
+      <c r="A17" t="s">
+        <v>6</v>
+      </c>
+      <c r="C17">
         <v>36.19801980198019</v>
       </c>
     </row>
-    <row r="13" spans="1:3">
-      <c r="A13" t="s">
-        <v>6</v>
-      </c>
-      <c r="C13">
+    <row r="18" spans="1:3">
+      <c r="A18" t="s">
+        <v>7</v>
+      </c>
+      <c r="C18">
         <v>399.5272277227723</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3">
+      <c r="A19" t="s">
+        <v>8</v>
+      </c>
+      <c r="C19">
+        <v>5.875553454757829</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3">
+      <c r="A20" t="s">
+        <v>9</v>
+      </c>
+      <c r="C20">
+        <v>56.60619337241361</v>
       </c>
     </row>
   </sheetData>
@@ -4049,7 +5769,7 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C13"/>
+  <dimension ref="A1:C20"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -4082,7 +5802,7 @@
         <v>2</v>
       </c>
       <c r="C3">
-        <v>0.1423267326732676</v>
+        <v>0.1425330033003304</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -4090,7 +5810,7 @@
         <v>3</v>
       </c>
       <c r="C4">
-        <v>0.2444306930693062</v>
+        <v>0.2446369636963689</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -4098,7 +5818,7 @@
         <v>4</v>
       </c>
       <c r="C5">
-        <v>0.2722772277227715</v>
+        <v>0.272483498349834</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -4106,7 +5826,7 @@
         <v>5</v>
       </c>
       <c r="C6">
-        <v>0.2920792079207913</v>
+        <v>0.292285478547854</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -4156,16 +5876,75 @@
       <c r="A12" t="s">
         <v>5</v>
       </c>
+      <c r="B12">
+        <v>1</v>
+      </c>
       <c r="C12">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3">
+      <c r="B13">
+        <v>2</v>
+      </c>
+      <c r="C13">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3">
+      <c r="B14">
+        <v>3</v>
+      </c>
+      <c r="C14">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
+      <c r="B15">
+        <v>4</v>
+      </c>
+      <c r="C15">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3">
+      <c r="B16">
+        <v>5</v>
+      </c>
+      <c r="C16">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
+      <c r="A17" t="s">
+        <v>6</v>
+      </c>
+      <c r="C17">
         <v>8.628712871287128</v>
       </c>
     </row>
-    <row r="13" spans="1:3">
-      <c r="A13" t="s">
-        <v>6</v>
-      </c>
-      <c r="C13">
+    <row r="18" spans="1:3">
+      <c r="A18" t="s">
+        <v>7</v>
+      </c>
+      <c r="C18">
         <v>270.9108910891089</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3">
+      <c r="A19" t="s">
+        <v>8</v>
+      </c>
+      <c r="C19">
+        <v>1.56753203465185</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3">
+      <c r="A20" t="s">
+        <v>9</v>
+      </c>
+      <c r="C20">
+        <v>41.15002735098941</v>
       </c>
     </row>
   </sheetData>
